--- a/PM/640_Netzplan/Netzplan_2.xlsx
+++ b/PM/640_Netzplan/Netzplan_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moritz\Documents\GitHub\labor_mod_sim\PM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moritz\Documents\GitHub\labor_mod_sim\PM\640_Netzplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2D7AF1-E3F7-4669-89CD-1E45933C6DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F954ACEB-2901-4845-9AFE-F873FE0086CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="2145" windowWidth="20760" windowHeight="15240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="133">
   <si>
     <t>1.1</t>
   </si>
@@ -181,9 +181,6 @@
   </si>
   <si>
     <t>FP (in Tagen) = Nachfolger FAZ - FEZ</t>
-  </si>
-  <si>
-    <t>20h</t>
   </si>
   <si>
     <t>4h</t>
@@ -229,9 +226,6 @@
     <t>2h</t>
   </si>
   <si>
-    <t>05.10.2022</t>
-  </si>
-  <si>
     <t>Team- und Projektvertrag</t>
   </si>
   <si>
@@ -277,16 +271,7 @@
     <t>Erstellung der Abschlusspräsentation</t>
   </si>
   <si>
-    <t>11.10.2022</t>
-  </si>
-  <si>
     <t>14.10.2022</t>
-  </si>
-  <si>
-    <t>20.10.2022</t>
-  </si>
-  <si>
-    <t>10.01.2023</t>
   </si>
   <si>
     <t>--------</t>
@@ -336,27 +321,9 @@
     <t>11h</t>
   </si>
   <si>
-    <t>07.10.2022</t>
-  </si>
-  <si>
-    <t>13.10.2022</t>
-  </si>
-  <si>
-    <t>19.10.2022</t>
-  </si>
-  <si>
-    <t>18.10.2022</t>
-  </si>
-  <si>
     <t>21.10.2022</t>
   </si>
   <si>
-    <t>24.10.2022</t>
-  </si>
-  <si>
-    <t>26.10.2022</t>
-  </si>
-  <si>
     <t>28.10.2022</t>
   </si>
   <si>
@@ -408,28 +375,7 @@
     <t xml:space="preserve">Abschluss: </t>
   </si>
   <si>
-    <t>03.11.2022</t>
-  </si>
-  <si>
-    <t>08.11.2022</t>
-  </si>
-  <si>
-    <t>14.11.2022</t>
-  </si>
-  <si>
     <t>Abgabe Projektmanagement</t>
-  </si>
-  <si>
-    <t>6.x</t>
-  </si>
-  <si>
-    <t>es müssen die controlling arbeitspakete hinzugefügt werden</t>
-  </si>
-  <si>
-    <t>es müssen die arbeitszeiten neu berechnet werden, es gibt einen bearbeiter pro paket</t>
-  </si>
-  <si>
-    <t>es muss eine legende erstellt werden</t>
   </si>
   <si>
     <r>
@@ -451,6 +397,239 @@
       <t>¸</t>
     </r>
   </si>
+  <si>
+    <t>6.7</t>
+  </si>
+  <si>
+    <t>Controlling</t>
+  </si>
+  <si>
+    <t>6.8</t>
+  </si>
+  <si>
+    <t>04.10.2022</t>
+  </si>
+  <si>
+    <t>11.11.2022</t>
+  </si>
+  <si>
+    <t>04.11.2022</t>
+  </si>
+  <si>
+    <t>16h</t>
+  </si>
+  <si>
+    <t>02.12.2022</t>
+  </si>
+  <si>
+    <t>09.12.2022</t>
+  </si>
+  <si>
+    <t>23.12.2022</t>
+  </si>
+  <si>
+    <t>06.01.2023</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>--------</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-------&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>GP [Tagen] = Gesamtpuffer = SEZ-FEZ</t>
+  </si>
+  <si>
+    <t>FP [Tagen] = Freier Puffer = Nachfolger FAZ-FEZ</t>
+  </si>
+  <si>
+    <t>Legende</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>---------------&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Kritischer Pfad</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>---------------&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3F3F3F"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Kritischer Pfad</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">FAZ = Frühester Anfangszeitpunkt </t>
+  </si>
+  <si>
+    <t>Fixtermin</t>
+  </si>
+  <si>
+    <t>Datum:</t>
+  </si>
+  <si>
+    <t>MS4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>------</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Wingdings 2"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>¸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>------</t>
+    </r>
+  </si>
+  <si>
+    <t>Meilenstein</t>
+  </si>
+  <si>
+    <t>MS1</t>
+  </si>
+  <si>
+    <r>
+      <t>------</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Wingdings 2"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>¸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-----&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>MS2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Wingdings 2"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>¸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MS3</t>
+    </r>
+  </si>
+  <si>
+    <t>MS0</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Wingdings 2"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>¸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-----&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Wochenstunden des gesamten Teams</t>
+  </si>
 </sst>
 </file>
 
@@ -459,7 +638,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -524,8 +703,15 @@
       <family val="1"/>
       <charset val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -549,8 +735,20 @@
         <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -634,12 +832,125 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -671,13 +982,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -697,6 +1004,24 @@
     <xf numFmtId="15" fontId="6" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="6" fillId="4" borderId="6" xfId="1" quotePrefix="1" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="6" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -706,6 +1031,24 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -724,19 +1067,94 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Ausgabe" xfId="1" builtinId="21"/>
@@ -1052,180 +1470,237 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AY61"/>
+  <dimension ref="A1:AY61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="72" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="11.3828125" style="2"/>
-    <col min="9" max="9" width="11.3828125" style="2"/>
-    <col min="13" max="13" width="11.3828125" style="2"/>
-    <col min="17" max="17" width="11.3828125" style="2" customWidth="1"/>
-    <col min="18" max="20" width="11.3828125" customWidth="1"/>
-    <col min="21" max="21" width="11.3828125" style="2"/>
+    <col min="5" max="5" width="11.42578125" style="2"/>
+    <col min="9" max="9" width="11.42578125" style="2"/>
+    <col min="13" max="13" width="11.42578125" style="2"/>
+    <col min="17" max="17" width="11.42578125" style="2" customWidth="1"/>
+    <col min="18" max="20" width="11.42578125" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:51" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-    </row>
-    <row r="2" spans="2:51" ht="14.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-    </row>
-    <row r="5" spans="2:51" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:51" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+    </row>
+    <row r="2" spans="1:51" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A5" s="83" t="s">
+        <v>130</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AT5" s="18"/>
-      <c r="AU5" s="18"/>
-      <c r="AV5" s="18"/>
-      <c r="AW5" s="18"/>
-      <c r="AX5" s="18"/>
-      <c r="AY5" s="18"/>
-    </row>
-    <row r="6" spans="2:51" x14ac:dyDescent="0.4">
-      <c r="B6" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="29"/>
+        <v>50</v>
+      </c>
+      <c r="Q5" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD5" s="81" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE5" s="82"/>
+      <c r="AF5" s="82"/>
+      <c r="AG5" s="59"/>
+      <c r="AH5" s="59"/>
+      <c r="AI5" s="59"/>
+      <c r="AJ5" s="59"/>
+      <c r="AK5" s="59"/>
+      <c r="AL5" s="59"/>
+      <c r="AM5" s="59"/>
+      <c r="AN5" s="59"/>
+      <c r="AO5" s="59"/>
+      <c r="AP5" s="60"/>
+      <c r="AT5" s="16"/>
+      <c r="AU5" s="16"/>
+      <c r="AV5" s="16"/>
+      <c r="AW5" s="16"/>
+      <c r="AX5" s="16"/>
+      <c r="AY5" s="16"/>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="38"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="29"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="39"/>
       <c r="I6" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="J6" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" s="28"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="38"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="O6" s="28"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="AP6" s="23"/>
-      <c r="AQ6" s="23"/>
-      <c r="AR6" s="23"/>
-      <c r="AS6" s="23"/>
-    </row>
-    <row r="7" spans="2:51" x14ac:dyDescent="0.4">
+      <c r="N6" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="O6" s="38"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD6" s="65"/>
+      <c r="AE6" s="28"/>
+      <c r="AF6" s="29"/>
+      <c r="AG6" s="54"/>
+      <c r="AH6" s="30"/>
+      <c r="AI6" s="58"/>
+      <c r="AJ6" s="30"/>
+      <c r="AK6" s="30"/>
+      <c r="AL6" s="30"/>
+      <c r="AM6" s="30"/>
+      <c r="AN6" s="30"/>
+      <c r="AO6" s="30"/>
+      <c r="AP6" s="32"/>
+      <c r="AQ6" s="21"/>
+      <c r="AR6" s="21"/>
+      <c r="AS6" s="21"/>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
         <v>44838</v>
       </c>
       <c r="C7" s="1">
         <f>D8-D7</f>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="F7" s="1" t="str">
         <f>D7</f>
-        <v>05.10.2022</v>
+        <v>04.10.2022</v>
       </c>
       <c r="G7" s="1">
         <f>H8-H7</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>16</v>
       </c>
       <c r="J7" s="1" t="str">
         <f>H7</f>
-        <v>07.10.2022</v>
+        <v>04.10.2022</v>
       </c>
       <c r="K7" s="1">
         <f>L8-L7</f>
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="M7" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" s="18" t="s">
         <v>16</v>
       </c>
       <c r="N7" s="1" t="str">
-        <f>L7</f>
-        <v>11.10.2022</v>
+        <f>L27</f>
+        <v>28.10.2022</v>
       </c>
       <c r="O7" s="1">
         <f>P8-P7</f>
-        <v>364</v>
+        <v>70</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AS7" s="20"/>
-    </row>
-    <row r="8" spans="2:51" x14ac:dyDescent="0.4">
+        <v>107</v>
+      </c>
+      <c r="AD7" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE7" s="74"/>
+      <c r="AF7" s="75"/>
+      <c r="AG7" s="55"/>
+      <c r="AH7" s="52"/>
+      <c r="AI7" s="53"/>
+      <c r="AJ7" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK7" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL7" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM7" s="30"/>
+      <c r="AN7" s="31"/>
+      <c r="AO7" s="30"/>
+      <c r="AP7" s="32"/>
+      <c r="AS7" s="18"/>
+    </row>
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <f>D8-1</f>
-        <v>44845</v>
+        <v>44851</v>
       </c>
       <c r="C8" s="6">
         <f>F7-D7</f>
@@ -1233,73 +1708,136 @@
       </c>
       <c r="D8" s="7">
         <f>F8</f>
-        <v>44846</v>
+        <v>44852</v>
       </c>
       <c r="F8" s="7">
         <f>H8-2</f>
-        <v>44846</v>
-      </c>
-      <c r="G8" s="6">
-        <f>J7-H7</f>
+        <v>44852</v>
+      </c>
+      <c r="G8" s="19">
+        <f>J39-H7</f>
         <v>0</v>
       </c>
       <c r="H8" s="7">
-        <f>J8</f>
-        <v>44848</v>
+        <f>J40</f>
+        <v>44854</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="7">
-        <f>L8-4</f>
-        <v>44848</v>
-      </c>
-      <c r="K8" s="6">
-        <f>J13-L7</f>
-        <v>-4</v>
+        <f>L8-7</f>
+        <v>44925</v>
+      </c>
+      <c r="K8" s="19">
+        <f>N7-L7</f>
+        <v>7</v>
       </c>
       <c r="L8" s="7">
-        <f>J14</f>
-        <v>44852</v>
-      </c>
-      <c r="M8" s="20" t="s">
+        <f>N8</f>
+        <v>44932</v>
+      </c>
+      <c r="M8" s="18" t="s">
         <v>16</v>
       </c>
       <c r="N8" s="7">
-        <f>P8-4</f>
-        <v>45205</v>
-      </c>
-      <c r="O8" s="6">
-        <f>N13-P7</f>
-        <v>-44845</v>
-      </c>
-      <c r="P8" s="7">
-        <v>45209</v>
-      </c>
-      <c r="AS8" s="20"/>
-    </row>
-    <row r="9" spans="2:51" x14ac:dyDescent="0.4">
+        <f>P8-14</f>
+        <v>44932</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P8" s="68">
+        <v>44946</v>
+      </c>
+      <c r="S8" s="4"/>
+      <c r="AD8" s="76"/>
+      <c r="AE8" s="77"/>
+      <c r="AF8" s="78"/>
+      <c r="AG8" s="55"/>
+      <c r="AH8" s="52"/>
+      <c r="AI8" s="54"/>
+      <c r="AJ8" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK8" s="41"/>
+      <c r="AL8" s="42"/>
+      <c r="AM8" s="30"/>
+      <c r="AN8" s="30"/>
+      <c r="AO8" s="30"/>
+      <c r="AP8" s="32"/>
+      <c r="AS8" s="18"/>
+    </row>
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="I9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="AS9" s="20"/>
-      <c r="AW9" s="14"/>
-    </row>
-    <row r="10" spans="2:51" x14ac:dyDescent="0.4">
+      <c r="M9" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD9" s="73"/>
+      <c r="AE9" s="74"/>
+      <c r="AF9" s="75"/>
+      <c r="AG9" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH9" s="52"/>
+      <c r="AI9" s="54"/>
+      <c r="AJ9" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK9" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL9" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM9" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN9" s="30"/>
+      <c r="AO9" s="30"/>
+      <c r="AP9" s="32"/>
+      <c r="AS9" s="18"/>
+      <c r="AW9" s="13"/>
+    </row>
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
       <c r="I10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="M10" s="20" t="s">
+      <c r="M10" s="18" t="s">
         <v>16</v>
       </c>
       <c r="Q10"/>
       <c r="U10"/>
-      <c r="AS10" s="20"/>
-    </row>
-    <row r="11" spans="2:51" x14ac:dyDescent="0.4">
+      <c r="AD10" s="73"/>
+      <c r="AE10" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF10" s="75"/>
+      <c r="AG10" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH10" s="52"/>
+      <c r="AI10" s="54"/>
+      <c r="AJ10" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK10" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL10" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM10" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN10" s="30"/>
+      <c r="AO10" s="30"/>
+      <c r="AP10" s="32"/>
+      <c r="AS10" s="18"/>
+    </row>
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
       <c r="I11" s="11" t="s">
         <v>16</v>
       </c>
@@ -1307,157 +1845,201 @@
         <v>42</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="M11" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="M11" s="18" t="s">
         <v>16</v>
       </c>
       <c r="Q11"/>
       <c r="U11"/>
-      <c r="AS11" s="20"/>
-    </row>
-    <row r="12" spans="2:51" x14ac:dyDescent="0.4">
-      <c r="I12" s="22" t="s">
+      <c r="AD11" s="33"/>
+      <c r="AE11" s="57"/>
+      <c r="AF11" s="79"/>
+      <c r="AG11" s="55"/>
+      <c r="AH11" s="52"/>
+      <c r="AI11" s="54"/>
+      <c r="AJ11" s="30"/>
+      <c r="AK11" s="30"/>
+      <c r="AL11" s="30"/>
+      <c r="AM11" s="30"/>
+      <c r="AN11" s="30"/>
+      <c r="AO11" s="30"/>
+      <c r="AP11" s="32"/>
+      <c r="AS11" s="18"/>
+    </row>
+    <row r="12" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="K12" s="28"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q12" s="13"/>
-      <c r="AH12" s="23"/>
-      <c r="AI12" s="23"/>
-      <c r="AJ12" s="23"/>
-      <c r="AK12" s="23"/>
-      <c r="AS12" s="22"/>
-    </row>
-    <row r="13" spans="2:51" x14ac:dyDescent="0.4">
-      <c r="B13" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="E13" s="30"/>
+      <c r="J12" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" s="38"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD12" s="61"/>
+      <c r="AE12" s="74"/>
+      <c r="AF12" s="63"/>
+      <c r="AG12" s="55"/>
+      <c r="AH12" s="52"/>
+      <c r="AI12" s="54"/>
+      <c r="AJ12" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK12" s="30"/>
+      <c r="AL12" s="30"/>
+      <c r="AM12" s="30"/>
+      <c r="AN12" s="30"/>
+      <c r="AO12" s="30"/>
+      <c r="AP12" s="32"/>
+      <c r="AS12" s="20"/>
+    </row>
+    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="B13" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="46"/>
       <c r="I13" s="11" t="s">
         <v>16</v>
       </c>
       <c r="J13" s="1" t="str">
         <f>H7</f>
-        <v>07.10.2022</v>
+        <v>04.10.2022</v>
       </c>
       <c r="K13" s="1">
         <f>L14-L13</f>
+        <v>77</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M13" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD13" s="80" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE13" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF13" s="32"/>
+      <c r="AG13" s="55"/>
+      <c r="AH13" s="52"/>
+      <c r="AI13" s="54"/>
+      <c r="AJ13" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK13" s="30"/>
+      <c r="AL13" s="30"/>
+      <c r="AM13" s="30"/>
+      <c r="AN13" s="30"/>
+      <c r="AO13" s="30"/>
+      <c r="AP13" s="32"/>
+      <c r="AS13" s="11"/>
+    </row>
+    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="B14" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="45"/>
+      <c r="D14" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="46"/>
+      <c r="I14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="7">
+        <f>L14-7</f>
+        <v>44925</v>
+      </c>
+      <c r="K14" s="19">
+        <f>N7-L13</f>
         <v>7</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="M13" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q13"/>
-      <c r="U13" s="13"/>
-      <c r="Z13" s="15">
-        <v>43252</v>
-      </c>
-      <c r="AS13" s="11"/>
-    </row>
-    <row r="14" spans="2:51" x14ac:dyDescent="0.4">
-      <c r="B14" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="E14" s="30"/>
-      <c r="I14" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" s="7">
-        <f>L14-2</f>
-        <v>44852</v>
-      </c>
-      <c r="K14" s="6">
-        <f>J20-L13</f>
-        <v>-6</v>
-      </c>
       <c r="L14" s="7">
-        <f>J34</f>
-        <v>44854</v>
-      </c>
-      <c r="M14" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q14"/>
-      <c r="U14"/>
+        <f>N8</f>
+        <v>44932</v>
+      </c>
+      <c r="M14" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD14" s="62"/>
+      <c r="AE14" s="34"/>
+      <c r="AF14" s="64"/>
+      <c r="AG14" s="56"/>
+      <c r="AH14" s="57"/>
+      <c r="AI14" s="34"/>
+      <c r="AJ14" s="34"/>
+      <c r="AK14" s="34"/>
+      <c r="AL14" s="34"/>
+      <c r="AM14" s="34"/>
+      <c r="AN14" s="34"/>
+      <c r="AO14" s="34"/>
+      <c r="AP14" s="35"/>
       <c r="AS14" s="11"/>
     </row>
-    <row r="15" spans="2:51" x14ac:dyDescent="0.4">
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="E15" s="30"/>
+    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="46"/>
       <c r="I15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="M15" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q15"/>
-      <c r="U15"/>
+      <c r="M15" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="AS15" s="11"/>
     </row>
-    <row r="16" spans="2:51" x14ac:dyDescent="0.4">
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="E16" s="30"/>
+    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="46"/>
       <c r="I16" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="M16" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="U16"/>
+      <c r="M16" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="AS16" s="11"/>
     </row>
-    <row r="17" spans="2:49" x14ac:dyDescent="0.4">
-      <c r="B17" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="38">
+    <row r="17" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B17" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44">
         <v>4</v>
       </c>
-      <c r="E17" s="38"/>
+      <c r="E17" s="44"/>
       <c r="I17" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="M17" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="U17"/>
+      <c r="M17" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="AS17" s="11"/>
     </row>
-    <row r="18" spans="2:49" x14ac:dyDescent="0.4">
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
+    <row r="18" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
       <c r="G18" s="4"/>
       <c r="I18" s="11" t="s">
         <v>16</v>
@@ -1466,141 +2048,145 @@
         <v>43</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="M18" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="U18"/>
-      <c r="AS18" s="17"/>
-    </row>
-    <row r="19" spans="2:49" x14ac:dyDescent="0.4">
-      <c r="B19" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="E19" s="26">
-        <v>44838</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="M18" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS18" s="15"/>
+    </row>
+    <row r="19" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B19" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="43"/>
+      <c r="D19" s="44">
+        <v>12</v>
+      </c>
+      <c r="E19" s="44"/>
       <c r="G19" s="4"/>
-      <c r="I19" s="22" t="s">
+      <c r="I19" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="27" t="s">
+      <c r="J19" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="K19" s="28"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="U19"/>
-    </row>
-    <row r="20" spans="2:49" x14ac:dyDescent="0.4">
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="E20" s="26">
-        <v>44874</v>
-      </c>
+      <c r="K19" s="38"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
       <c r="I20" s="11" t="s">
         <v>16</v>
       </c>
       <c r="J20" s="1" t="str">
         <f>H7</f>
-        <v>07.10.2022</v>
+        <v>04.10.2022</v>
       </c>
       <c r="K20" s="1">
         <f>L21-L20</f>
+        <v>84</v>
+      </c>
+      <c r="L20" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="L20" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M20" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="U20"/>
-    </row>
-    <row r="21" spans="2:49" x14ac:dyDescent="0.4">
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="E21" s="26">
+      <c r="M20" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B21" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="45"/>
+      <c r="D21" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="24">
+        <v>44838</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="7">
+        <f>L21-7</f>
+        <v>44925</v>
+      </c>
+      <c r="K21" s="19">
+        <f>N7-L20</f>
+        <v>14</v>
+      </c>
+      <c r="L21" s="7">
+        <f>N8</f>
+        <v>44932</v>
+      </c>
+      <c r="M21" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="24">
+        <v>44874</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M22" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="U22"/>
+      <c r="Y22" s="3"/>
+    </row>
+    <row r="23" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="24">
         <v>44936</v>
       </c>
-      <c r="I21" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J21" s="7">
-        <f>L21-1</f>
-        <v>44917</v>
-      </c>
-      <c r="K21" s="6">
-        <f>J27-L20</f>
-        <v>-7</v>
-      </c>
-      <c r="L21" s="7">
-        <f>J28</f>
-        <v>44918</v>
-      </c>
-      <c r="M21" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="U21"/>
-    </row>
-    <row r="22" spans="2:49" x14ac:dyDescent="0.4">
-      <c r="B22" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="31">
+      <c r="I23" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M23" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="U23"/>
+      <c r="Y23" s="3"/>
+    </row>
+    <row r="24" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B24" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="46"/>
+      <c r="D24" s="47">
         <v>44844</v>
       </c>
-      <c r="E22" s="30"/>
-      <c r="I22" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="M22" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="U22"/>
-    </row>
-    <row r="23" spans="2:49" x14ac:dyDescent="0.4">
-      <c r="I23" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="M23" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="U23"/>
-    </row>
-    <row r="24" spans="2:49" x14ac:dyDescent="0.4">
-      <c r="B24" t="s">
-        <v>117</v>
-      </c>
+      <c r="E24" s="46"/>
       <c r="I24" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="M24" s="20" t="s">
+      <c r="M24" s="18" t="s">
         <v>16</v>
       </c>
       <c r="U24"/>
     </row>
-    <row r="25" spans="2:49" x14ac:dyDescent="0.4">
-      <c r="B25" t="s">
-        <v>118</v>
-      </c>
+    <row r="25" spans="2:45" x14ac:dyDescent="0.25">
       <c r="I25" s="11" t="s">
         <v>16</v>
       </c>
@@ -1608,901 +2194,986 @@
         <v>44</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M25" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="M25" s="18" t="s">
         <v>16</v>
       </c>
       <c r="U25"/>
     </row>
-    <row r="26" spans="2:49" x14ac:dyDescent="0.4">
-      <c r="B26" t="s">
-        <v>119</v>
-      </c>
-      <c r="I26" s="22" t="s">
+    <row r="26" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="I26" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="K26" s="28"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="23" t="s">
-        <v>76</v>
+      <c r="J26" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="K26" s="38"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="21" t="s">
+        <v>71</v>
       </c>
       <c r="U26"/>
     </row>
-    <row r="27" spans="2:49" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:45" x14ac:dyDescent="0.25">
       <c r="I27" s="11" t="s">
         <v>16</v>
       </c>
       <c r="J27" s="1" t="str">
         <f>H7</f>
-        <v>07.10.2022</v>
+        <v>04.10.2022</v>
       </c>
       <c r="K27" s="1">
         <f>L28-L27</f>
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
+      </c>
+      <c r="M27" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="U27"/>
     </row>
-    <row r="28" spans="2:49" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:45" x14ac:dyDescent="0.25">
       <c r="I28" s="11" t="s">
         <v>16</v>
       </c>
       <c r="J28" s="7">
-        <f>L28-6</f>
-        <v>44918</v>
-      </c>
-      <c r="K28" s="21">
-        <f>AL33-L27</f>
-        <v>16</v>
+        <f>L28-18</f>
+        <v>44914</v>
+      </c>
+      <c r="K28" s="19">
+        <f>N7-L27</f>
+        <v>0</v>
       </c>
       <c r="L28" s="7">
-        <f>AL34</f>
-        <v>44924</v>
+        <f>N8</f>
+        <v>44932</v>
+      </c>
+      <c r="M28" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="U28"/>
     </row>
-    <row r="29" spans="2:49" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:45" x14ac:dyDescent="0.25">
       <c r="I29" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M29" s="18" t="s">
         <v>16</v>
       </c>
       <c r="Q29"/>
       <c r="U29"/>
     </row>
-    <row r="30" spans="2:49" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:45" x14ac:dyDescent="0.25">
       <c r="I30" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="M30"/>
-      <c r="Q30"/>
-      <c r="U30"/>
-    </row>
-    <row r="31" spans="2:49" x14ac:dyDescent="0.4">
+      <c r="M30" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="2:45" x14ac:dyDescent="0.25">
       <c r="I31" s="11" t="s">
         <v>16</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="R31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="T31" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="V31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="W31" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="X31" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y31" s="2"/>
-      <c r="AL31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM31" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN31" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AP31" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AQ31" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AR31" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AS31" s="2"/>
-      <c r="AT31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AU31" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AV31" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="2:49" x14ac:dyDescent="0.4">
-      <c r="I32" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="M31" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="I32" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="J32" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="K32" s="28"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="N32" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="O32" s="28"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="R32" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="S32" s="33"/>
-      <c r="T32" s="34"/>
-      <c r="U32" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="V32" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="W32" s="33"/>
-      <c r="X32" s="34"/>
-      <c r="Y32" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z32" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA32" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB32" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC32" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD32" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="AE32" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF32" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG32" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH32" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="AI32" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJ32" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK32" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL32" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM32" s="28"/>
-      <c r="AN32" s="29"/>
-      <c r="AO32" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="AP32" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="AQ32" s="28"/>
-      <c r="AR32" s="29"/>
-      <c r="AS32" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="AT32" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="AU32" s="28"/>
-      <c r="AV32" s="29"/>
-      <c r="AW32" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="9:48" x14ac:dyDescent="0.4">
-      <c r="I33" s="20" t="s">
+      <c r="J32" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="K32" s="38"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="9:49" x14ac:dyDescent="0.25">
+      <c r="I33" s="11" t="s">
         <v>16</v>
       </c>
       <c r="J33" s="1" t="str">
         <f>H7</f>
-        <v>07.10.2022</v>
+        <v>04.10.2022</v>
       </c>
       <c r="K33" s="1">
         <f>L34-L33</f>
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="M33" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="N33" s="1" t="str">
-        <f>L33</f>
-        <v>18.10.2022</v>
-      </c>
-      <c r="O33" s="1">
-        <f>P34-P33</f>
-        <v>9</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q33" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="R33" s="1" t="str">
-        <f>P33</f>
-        <v>19.10.2022</v>
-      </c>
-      <c r="S33" s="1">
-        <f>T34-T33</f>
+        <v>84</v>
+      </c>
+      <c r="M33" s="21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="9:49" x14ac:dyDescent="0.25">
+      <c r="I34" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" s="7">
+        <f>L34-18</f>
+        <v>44914</v>
+      </c>
+      <c r="K34" s="19">
+        <f>N7-L33</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="7">
+        <f>N8</f>
+        <v>44932</v>
+      </c>
+    </row>
+    <row r="35" spans="9:49" x14ac:dyDescent="0.25">
+      <c r="I35" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="9:49" x14ac:dyDescent="0.25">
+      <c r="I36" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M36"/>
+      <c r="Q36"/>
+      <c r="U36"/>
+    </row>
+    <row r="37" spans="9:49" x14ac:dyDescent="0.25">
+      <c r="I37" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W37" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X37" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y37" s="71" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM37" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ37" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS37" s="2"/>
+      <c r="AT37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="T33" s="1" t="s">
+      <c r="AU37" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="U33" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="V33" s="1" t="str">
-        <f>T33</f>
-        <v>20.10.2022</v>
-      </c>
-      <c r="W33" s="1">
-        <f>X34-X33</f>
-        <v>14</v>
-      </c>
-      <c r="X33" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK33" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="AL33" s="1" t="str">
-        <f>AJ39</f>
-        <v>03.11.2022</v>
-      </c>
-      <c r="AM33" s="1">
-        <f>AN34-AN33</f>
-        <v>58</v>
-      </c>
-      <c r="AN33" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AP33" s="1" t="str">
-        <f>AN33</f>
-        <v>08.11.2022</v>
-      </c>
-      <c r="AQ33" s="1">
-        <f>AR34-AR33</f>
-        <v>56</v>
-      </c>
-      <c r="AR33" s="1" t="s">
+      <c r="AV37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW37" s="72" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="9:49" x14ac:dyDescent="0.25">
+      <c r="I38" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="K38" s="38"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="N38" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="O38" s="38"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="R38" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="S38" s="49"/>
+      <c r="T38" s="50"/>
+      <c r="U38" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="V38" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="W38" s="49"/>
+      <c r="X38" s="50"/>
+      <c r="Y38" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z38" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA38" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB38" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC38" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD38" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE38" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF38" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG38" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH38" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI38" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ38" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK38" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="AS33" s="2"/>
-      <c r="AT33" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AU33" s="1">
-        <f>AV34-AV33</f>
-        <v>0</v>
-      </c>
-      <c r="AV33" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="34" spans="9:48" x14ac:dyDescent="0.4">
-      <c r="I34" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="J34" s="7">
-        <f>L34-6</f>
-        <v>44854</v>
-      </c>
-      <c r="K34" s="6">
-        <f>N33-L33</f>
-        <v>0</v>
-      </c>
-      <c r="L34" s="7">
-        <f>N34</f>
-        <v>44860</v>
-      </c>
-      <c r="M34" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="N34" s="7">
-        <f>P34-2</f>
-        <v>44860</v>
-      </c>
-      <c r="O34" s="6">
-        <f>R33-P33</f>
-        <v>0</v>
-      </c>
-      <c r="P34" s="7">
-        <f>R34</f>
-        <v>44862</v>
-      </c>
-      <c r="Q34" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="R34" s="7">
-        <f>T34-3</f>
-        <v>44862</v>
-      </c>
-      <c r="S34" s="6">
-        <f>V33-T33</f>
-        <v>0</v>
-      </c>
-      <c r="T34" s="7">
-        <f>V34</f>
-        <v>44865</v>
-      </c>
-      <c r="U34" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="V34" s="7">
-        <f>X34-9</f>
-        <v>44865</v>
-      </c>
-      <c r="W34" s="6">
-        <f>AL33-X33</f>
-        <v>8</v>
-      </c>
-      <c r="X34" s="7">
-        <v>44874</v>
-      </c>
-      <c r="AK34" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="AL34" s="7">
-        <f>AN34-7</f>
-        <v>44924</v>
-      </c>
-      <c r="AM34" s="6">
-        <f>AP33-AN33</f>
-        <v>0</v>
-      </c>
-      <c r="AN34" s="7">
-        <f>AP34</f>
-        <v>44931</v>
-      </c>
-      <c r="AP34" s="7">
-        <f>AR34-4</f>
-        <v>44931</v>
-      </c>
-      <c r="AQ34" s="6">
-        <f>AT33-AR33</f>
-        <v>57</v>
-      </c>
-      <c r="AR34" s="7">
-        <v>44935</v>
-      </c>
-      <c r="AS34" s="2"/>
-      <c r="AT34" s="7">
-        <v>44936</v>
-      </c>
-      <c r="AU34" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="AV34" s="7">
-        <v>44936</v>
-      </c>
-    </row>
-    <row r="35" spans="9:48" x14ac:dyDescent="0.4">
-      <c r="I35" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="M35" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q35" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="U35" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK35" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="9:48" x14ac:dyDescent="0.4">
-      <c r="I36" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="M36" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q36" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="U36" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK36" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="9:48" x14ac:dyDescent="0.4">
-      <c r="I37" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M37" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q37" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="U37" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="V37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="W37" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="X37" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA37" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB37" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD37" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE37" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF37" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI37" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AJ37" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK37" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="9:48" x14ac:dyDescent="0.4">
-      <c r="I38" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="J38" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="K38" s="28"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q38" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="U38" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="V38" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="W38" s="28"/>
-      <c r="X38" s="29"/>
-      <c r="Y38" s="10" t="s">
+      <c r="AL38" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM38" s="38"/>
+      <c r="AN38" s="39"/>
+      <c r="AO38" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Z38" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA38" s="28"/>
-      <c r="AB38" s="29"/>
-      <c r="AC38" s="10" t="s">
+      <c r="AP38" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ38" s="38"/>
+      <c r="AR38" s="39"/>
+      <c r="AS38" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AD38" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE38" s="28"/>
-      <c r="AF38" s="29"/>
-      <c r="AG38" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH38" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="AI38" s="28"/>
-      <c r="AJ38" s="29"/>
-      <c r="AK38" s="17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="9:48" x14ac:dyDescent="0.4">
-      <c r="I39" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="J39" s="19" t="str">
+      <c r="AT38" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU38" s="38"/>
+      <c r="AV38" s="39"/>
+      <c r="AW38" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="9:49" x14ac:dyDescent="0.25">
+      <c r="I39" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J39" s="1" t="str">
         <f>H7</f>
-        <v>07.10.2022</v>
+        <v>04.10.2022</v>
       </c>
       <c r="K39" s="1">
         <f>L40-L39</f>
         <v>12</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q39" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="U39"/>
+        <v>70</v>
+      </c>
+      <c r="M39" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="N39" s="1" t="str">
+        <f>L39</f>
+        <v>14.10.2022</v>
+      </c>
+      <c r="O39" s="1">
+        <f>P40-P39</f>
+        <v>7</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q39" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="R39" s="1" t="str">
+        <f>P39</f>
+        <v>21.10.2022</v>
+      </c>
+      <c r="S39" s="1">
+        <f>T40-T39</f>
+        <v>3</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="U39" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="V39" s="1" t="str">
-        <f>T33</f>
-        <v>20.10.2022</v>
+        <f>T39</f>
+        <v>28.10.2022</v>
       </c>
       <c r="W39" s="1">
         <f>X40-X39</f>
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="X39" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z39" s="1" t="str">
-        <f>X39</f>
-        <v>21.10.2022</v>
-      </c>
-      <c r="AA39" s="1">
-        <f>AB40-AB39</f>
-        <v>60</v>
-      </c>
-      <c r="AB39" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD39" s="1" t="str">
-        <f>AB39</f>
-        <v>24.10.2022</v>
-      </c>
-      <c r="AE39" s="1">
-        <f>AF40-AF39</f>
+        <v>108</v>
+      </c>
+      <c r="AK39" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL39" s="1" t="str">
+        <f>AJ45</f>
+        <v>09.12.2022</v>
+      </c>
+      <c r="AM39" s="1">
+        <f>AN40-AN39</f>
+        <v>10</v>
+      </c>
+      <c r="AN39" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP39" s="1" t="str">
+        <f>AN39</f>
+        <v>23.12.2022</v>
+      </c>
+      <c r="AQ39" s="1">
+        <f>AR40-AR39</f>
+        <v>3</v>
+      </c>
+      <c r="AR39" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS39" s="2"/>
+      <c r="AT39" s="67" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV39" s="67" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="9:49" x14ac:dyDescent="0.25">
+      <c r="I40" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J40" s="7">
+        <f>L40-6</f>
+        <v>44854</v>
+      </c>
+      <c r="K40" s="6">
+        <f>N39-L39</f>
+        <v>0</v>
+      </c>
+      <c r="L40" s="7">
+        <f>N40</f>
+        <v>44860</v>
+      </c>
+      <c r="M40" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="N40" s="7">
+        <f>P40-2</f>
+        <v>44860</v>
+      </c>
+      <c r="O40" s="6">
+        <f>R39-P39</f>
+        <v>0</v>
+      </c>
+      <c r="P40" s="7">
+        <f>R40</f>
+        <v>44862</v>
+      </c>
+      <c r="Q40" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="R40" s="7">
+        <f>T40-3</f>
+        <v>44862</v>
+      </c>
+      <c r="S40" s="6">
+        <f>V39-T39</f>
+        <v>0</v>
+      </c>
+      <c r="T40" s="7">
+        <f>V40</f>
+        <v>44865</v>
+      </c>
+      <c r="U40" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="V40" s="7">
+        <f>X40-9</f>
+        <v>44865</v>
+      </c>
+      <c r="W40" s="6">
+        <f>AL39-X39</f>
+        <v>35</v>
+      </c>
+      <c r="X40" s="68">
+        <v>44874</v>
+      </c>
+      <c r="AK40" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL40" s="7">
+        <f>AN40-14</f>
+        <v>44914</v>
+      </c>
+      <c r="AM40" s="6">
+        <f>AP39-AN39</f>
+        <v>0</v>
+      </c>
+      <c r="AN40" s="7">
+        <f>AP40</f>
+        <v>44928</v>
+      </c>
+      <c r="AP40" s="7">
+        <f>AR40-7</f>
+        <v>44928</v>
+      </c>
+      <c r="AQ40" s="19">
+        <f>AU41-AR39</f>
+        <v>4</v>
+      </c>
+      <c r="AR40" s="7">
+        <v>44935</v>
+      </c>
+      <c r="AS40" s="2"/>
+      <c r="AT40" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU40" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV40" s="68" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="9:49" x14ac:dyDescent="0.25">
+      <c r="I41" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="M41" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q41" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="U41" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK41" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AT41" s="70" t="s">
+        <v>122</v>
+      </c>
+      <c r="AU41" s="69">
+        <v>44936</v>
+      </c>
+    </row>
+    <row r="42" spans="9:49" x14ac:dyDescent="0.25">
+      <c r="I42" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="M42" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q42" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="U42" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK42" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43" spans="9:49" x14ac:dyDescent="0.25">
+      <c r="I43" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M43" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q43" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="U43" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="V43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W43" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA43" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB43" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC43" s="83" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE43" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI43" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK43" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="9:49" x14ac:dyDescent="0.25">
+      <c r="I44" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J44" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="AF39" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AH39" s="1" t="str">
-        <f>AF39</f>
-        <v>28.10.2022</v>
-      </c>
-      <c r="AI39" s="1">
-        <f>AJ40-AJ39</f>
-        <v>56</v>
-      </c>
-      <c r="AJ39" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="40" spans="9:48" x14ac:dyDescent="0.4">
-      <c r="I40" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="J40" s="7">
-        <f>L40-1</f>
-        <v>44859</v>
-      </c>
-      <c r="K40" s="6">
-        <f>N33-L39</f>
-        <v>4</v>
-      </c>
-      <c r="L40" s="7">
-        <f>N34</f>
-        <v>44860</v>
-      </c>
-      <c r="M40" s="20"/>
-      <c r="Q40" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="U40"/>
-      <c r="V40" s="7">
-        <f>X40-1</f>
-        <v>44916</v>
-      </c>
-      <c r="W40" s="6">
-        <f>Z39-X39</f>
-        <v>0</v>
-      </c>
-      <c r="X40" s="7">
-        <f>Z40</f>
-        <v>44917</v>
-      </c>
-      <c r="Z40" s="7">
-        <f>AB40-1</f>
-        <v>44917</v>
-      </c>
-      <c r="AA40" s="6">
-        <f>AD39-AB39</f>
-        <v>0</v>
-      </c>
-      <c r="AB40" s="7">
-        <f>AD40</f>
-        <v>44918</v>
-      </c>
-      <c r="AD40" s="7">
-        <f>AF40-5</f>
-        <v>44918</v>
-      </c>
-      <c r="AE40" s="6">
-        <f>AH39-AF39</f>
-        <v>0</v>
-      </c>
-      <c r="AF40" s="7">
-        <f>AH40</f>
-        <v>44923</v>
-      </c>
-      <c r="AH40" s="7">
-        <f>AJ40-1</f>
-        <v>44923</v>
-      </c>
-      <c r="AI40" s="6">
-        <f>AL33-AJ39</f>
-        <v>0</v>
-      </c>
-      <c r="AJ40" s="7">
-        <f>AL34</f>
-        <v>44924</v>
-      </c>
-    </row>
-    <row r="41" spans="9:48" x14ac:dyDescent="0.4">
-      <c r="I41" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="M41" s="20"/>
-      <c r="Q41" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="U41"/>
-    </row>
-    <row r="42" spans="9:48" x14ac:dyDescent="0.4">
-      <c r="I42" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="M42" s="20"/>
-      <c r="Q42" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="U42"/>
-    </row>
-    <row r="43" spans="9:48" x14ac:dyDescent="0.4">
-      <c r="I43" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="M43" s="20"/>
-      <c r="Q43" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="U43"/>
-    </row>
-    <row r="44" spans="9:48" x14ac:dyDescent="0.4">
-      <c r="I44" s="22" t="s">
+      <c r="K44" s="38"/>
+      <c r="L44" s="39"/>
+      <c r="M44" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q44" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="U44" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J44" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="K44" s="28"/>
-      <c r="L44" s="29"/>
-      <c r="M44" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="N44" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="O44" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="P44" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q44" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="U44"/>
-    </row>
-    <row r="45" spans="9:48" x14ac:dyDescent="0.4">
-      <c r="J45" s="1" t="str">
+      <c r="V44" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="W44" s="38"/>
+      <c r="X44" s="39"/>
+      <c r="Y44" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z44" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA44" s="38"/>
+      <c r="AB44" s="39"/>
+      <c r="AC44" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD44" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE44" s="38"/>
+      <c r="AF44" s="39"/>
+      <c r="AG44" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH44" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI44" s="38"/>
+      <c r="AJ44" s="39"/>
+      <c r="AK44" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="9:49" x14ac:dyDescent="0.25">
+      <c r="I45" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J45" s="17" t="str">
         <f>H7</f>
-        <v>07.10.2022</v>
+        <v>04.10.2022</v>
       </c>
       <c r="K45" s="1">
         <f>L46-L45</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M45"/>
-      <c r="Q45" s="20"/>
+        <v>70</v>
+      </c>
+      <c r="Q45" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="U45"/>
-    </row>
-    <row r="46" spans="9:48" x14ac:dyDescent="0.4">
+      <c r="V45" s="1" t="str">
+        <f>T39</f>
+        <v>28.10.2022</v>
+      </c>
+      <c r="W45" s="1">
+        <f>X46-X45</f>
+        <v>17</v>
+      </c>
+      <c r="X45" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z45" s="1" t="str">
+        <f>X45</f>
+        <v>04.11.2022</v>
+      </c>
+      <c r="AA45" s="1">
+        <f>AB46-AB45</f>
+        <v>17</v>
+      </c>
+      <c r="AB45" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD45" s="1" t="str">
+        <f>AB45</f>
+        <v>11.11.2022</v>
+      </c>
+      <c r="AE45" s="1">
+        <f>AF46-AF45</f>
+        <v>10</v>
+      </c>
+      <c r="AF45" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH45" s="1" t="str">
+        <f>AF45</f>
+        <v>02.12.2022</v>
+      </c>
+      <c r="AI45" s="1">
+        <f>AJ46-AJ45</f>
+        <v>10</v>
+      </c>
+      <c r="AJ45" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="9:49" x14ac:dyDescent="0.25">
+      <c r="I46" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="J46" s="7">
         <f>L46-1</f>
+        <v>44859</v>
+      </c>
+      <c r="K46" s="6">
+        <f>N39-L45</f>
+        <v>0</v>
+      </c>
+      <c r="L46" s="7">
+        <f>N40</f>
+        <v>44860</v>
+      </c>
+      <c r="M46" s="18"/>
+      <c r="Q46" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="U46"/>
+      <c r="V46" s="7">
+        <f>X46-7</f>
+        <v>44879</v>
+      </c>
+      <c r="W46" s="6">
+        <f>Z45-X45</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="7">
+        <f>Z46</f>
+        <v>44886</v>
+      </c>
+      <c r="Z46" s="7">
+        <f>AB46-7</f>
+        <v>44886</v>
+      </c>
+      <c r="AA46" s="6">
+        <f>AD45-AB45</f>
+        <v>0</v>
+      </c>
+      <c r="AB46" s="7">
+        <f>AD46</f>
+        <v>44893</v>
+      </c>
+      <c r="AD46" s="7">
+        <f>AF46-14</f>
+        <v>44893</v>
+      </c>
+      <c r="AE46" s="6">
+        <f>AH45-AF45</f>
+        <v>0</v>
+      </c>
+      <c r="AF46" s="7">
+        <f>AH46</f>
+        <v>44907</v>
+      </c>
+      <c r="AH46" s="7">
+        <f>AJ46-7</f>
+        <v>44907</v>
+      </c>
+      <c r="AI46" s="6">
+        <f>AL39-AJ45</f>
+        <v>0</v>
+      </c>
+      <c r="AJ46" s="7">
+        <f>AL40</f>
+        <v>44914</v>
+      </c>
+    </row>
+    <row r="47" spans="9:49" x14ac:dyDescent="0.25">
+      <c r="I47" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="M47" s="18"/>
+      <c r="Q47" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="U47"/>
+    </row>
+    <row r="48" spans="9:49" x14ac:dyDescent="0.25">
+      <c r="I48" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="M48" s="18"/>
+      <c r="Q48" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="U48"/>
+    </row>
+    <row r="49" spans="9:21" x14ac:dyDescent="0.25">
+      <c r="I49" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M49" s="18"/>
+      <c r="Q49" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="U49"/>
+    </row>
+    <row r="50" spans="9:21" x14ac:dyDescent="0.25">
+      <c r="I50" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J50" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="K50" s="38"/>
+      <c r="L50" s="39"/>
+      <c r="M50" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="N50" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="O50" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="P50" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q50" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="U50"/>
+    </row>
+    <row r="51" spans="9:21" x14ac:dyDescent="0.25">
+      <c r="J51" s="1" t="str">
+        <f>H7</f>
+        <v>04.10.2022</v>
+      </c>
+      <c r="K51" s="1">
+        <f>L52-L51</f>
+        <v>14</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M51"/>
+      <c r="Q51" s="18"/>
+      <c r="U51"/>
+    </row>
+    <row r="52" spans="9:21" x14ac:dyDescent="0.25">
+      <c r="J52" s="7">
+        <f>L52-1</f>
         <v>44861</v>
       </c>
-      <c r="K46" s="6">
-        <f>N33-L45</f>
-        <v>4</v>
-      </c>
-      <c r="L46" s="7">
-        <f>R34</f>
+      <c r="K52" s="6">
+        <f>N39-L51</f>
+        <v>0</v>
+      </c>
+      <c r="L52" s="7">
+        <f>R40</f>
         <v>44862</v>
       </c>
-      <c r="M46"/>
-      <c r="Q46"/>
-      <c r="U46"/>
-    </row>
-    <row r="47" spans="9:48" x14ac:dyDescent="0.4">
-      <c r="U47"/>
-    </row>
-    <row r="48" spans="9:48" x14ac:dyDescent="0.4">
-      <c r="U48"/>
-    </row>
-    <row r="49" spans="17:21" x14ac:dyDescent="0.4">
-      <c r="U49"/>
-    </row>
-    <row r="50" spans="17:21" x14ac:dyDescent="0.4">
-      <c r="U50"/>
-    </row>
-    <row r="51" spans="17:21" x14ac:dyDescent="0.4">
-      <c r="U51"/>
-    </row>
-    <row r="52" spans="17:21" x14ac:dyDescent="0.4">
+      <c r="M52"/>
+      <c r="Q52"/>
       <c r="U52"/>
     </row>
-    <row r="53" spans="17:21" x14ac:dyDescent="0.4">
+    <row r="53" spans="9:21" x14ac:dyDescent="0.25">
       <c r="U53"/>
     </row>
-    <row r="54" spans="17:21" x14ac:dyDescent="0.4">
+    <row r="54" spans="9:21" x14ac:dyDescent="0.25">
       <c r="U54"/>
     </row>
-    <row r="55" spans="17:21" x14ac:dyDescent="0.4">
+    <row r="55" spans="9:21" x14ac:dyDescent="0.25">
       <c r="U55"/>
     </row>
-    <row r="56" spans="17:21" x14ac:dyDescent="0.4">
+    <row r="56" spans="9:21" x14ac:dyDescent="0.25">
       <c r="U56"/>
     </row>
-    <row r="57" spans="17:21" x14ac:dyDescent="0.4">
+    <row r="57" spans="9:21" x14ac:dyDescent="0.25">
       <c r="U57"/>
     </row>
-    <row r="58" spans="17:21" x14ac:dyDescent="0.4">
+    <row r="58" spans="9:21" x14ac:dyDescent="0.25">
       <c r="U58"/>
     </row>
-    <row r="59" spans="17:21" x14ac:dyDescent="0.4">
+    <row r="59" spans="9:21" x14ac:dyDescent="0.25">
       <c r="Q59"/>
       <c r="U59"/>
     </row>
-    <row r="60" spans="17:21" x14ac:dyDescent="0.4">
+    <row r="60" spans="9:21" x14ac:dyDescent="0.25">
       <c r="Q60"/>
       <c r="U60"/>
     </row>
-    <row r="61" spans="17:21" x14ac:dyDescent="0.4">
+    <row r="61" spans="9:21" x14ac:dyDescent="0.25">
       <c r="U61"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="37">
     <mergeCell ref="N6:P6"/>
     <mergeCell ref="J6:L6"/>
     <mergeCell ref="B1:H2"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="AD5:AP5"/>
     <mergeCell ref="B14:C16"/>
     <mergeCell ref="F6:H6"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="AT32:AV32"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="V32:X32"/>
-    <mergeCell ref="R32:T32"/>
+    <mergeCell ref="AT38:AV38"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="V38:X38"/>
+    <mergeCell ref="R38:T38"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D19:E20"/>
     <mergeCell ref="B17:C18"/>
     <mergeCell ref="D17:E18"/>
-    <mergeCell ref="B19:C21"/>
-    <mergeCell ref="AH38:AJ38"/>
-    <mergeCell ref="AP32:AR32"/>
-    <mergeCell ref="AL32:AN32"/>
-    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="B21:C23"/>
+    <mergeCell ref="AH44:AJ44"/>
+    <mergeCell ref="AP38:AR38"/>
+    <mergeCell ref="AL38:AN38"/>
     <mergeCell ref="J38:L38"/>
     <mergeCell ref="J44:L44"/>
-    <mergeCell ref="V38:X38"/>
-    <mergeCell ref="Z38:AB38"/>
-    <mergeCell ref="AD38:AF38"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B19:C20"/>
+    <mergeCell ref="AD44:AF44"/>
     <mergeCell ref="J12:L12"/>
     <mergeCell ref="J26:L26"/>
     <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="AJ8:AL8"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="V44:X44"/>
+    <mergeCell ref="Z44:AB44"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -2511,21 +3182,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D6972D7-FA6F-483B-A6A0-420C6D643DE0}">
-  <dimension ref="B2:R9"/>
+  <dimension ref="B2:R15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="E2" s="2"/>
       <c r="I2" s="2"/>
       <c r="M2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>28</v>
       </c>
@@ -2542,15 +3213,15 @@
       <c r="M3" s="2"/>
       <c r="Q3" s="2"/>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="29"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="39"/>
       <c r="H4" s="4" t="s">
         <v>29</v>
       </c>
@@ -2570,7 +3241,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
         <v>22</v>
       </c>
@@ -2599,7 +3270,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
         <v>25</v>
       </c>
@@ -2613,33 +3284,38 @@
       <c r="M6" s="2"/>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="F7" s="2"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="16" t="s">
-        <v>52</v>
+      <c r="I7" s="14" t="s">
+        <v>51</v>
       </c>
       <c r="J7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="Q7" s="2"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="E8" s="2"/>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="15" t="s">
         <v>13</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M8" s="2"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="E9" s="2"/>
       <c r="I9" s="2"/>
       <c r="M9" s="2"/>
       <c r="Q9" s="2"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="H15" s="16" t="s">
+        <v>118</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/PM/640_Netzplan/Netzplan_2.xlsx
+++ b/PM/640_Netzplan/Netzplan_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moritz\Documents\GitHub\labor_mod_sim\PM\640_Netzplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F954ACEB-2901-4845-9AFE-F873FE0086CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFA851D-1A56-4B01-B0E8-401D485B2C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="2145" windowWidth="20760" windowHeight="15240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="136">
   <si>
     <t>1.1</t>
   </si>
@@ -257,9 +257,6 @@
   </si>
   <si>
     <t>Einstellung der Simulationsparameter</t>
-  </si>
-  <si>
-    <t>Implementierung des Zustandsraumm.</t>
   </si>
   <si>
     <t>Erstellung der Animationsoberfläche</t>
@@ -581,28 +578,6 @@
     <t>MS2</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Wingdings 2"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>¸</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>MS3</t>
-    </r>
-  </si>
-  <si>
     <t>MS0</t>
   </si>
   <si>
@@ -629,6 +604,52 @@
   </si>
   <si>
     <t>Wochenstunden des gesamten Teams</t>
+  </si>
+  <si>
+    <t>Implementierung des Zustandsraum</t>
+  </si>
+  <si>
+    <r>
+      <t>MS3'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Wingdings 2"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>¸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>------</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+  </si>
+  <si>
+    <t>Bis Abgabe</t>
+  </si>
+  <si>
+    <t>--------&lt;---------</t>
+  </si>
+  <si>
+    <t>&lt;------------------</t>
   </si>
 </sst>
 </file>
@@ -950,7 +971,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1022,58 +1043,12 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1084,12 +1059,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1118,10 +1087,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1146,14 +1112,68 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1472,49 +1492,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="S9" zoomScale="59" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD21" sqref="AD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="5" max="5" width="11.42578125" style="2"/>
-    <col min="9" max="9" width="11.42578125" style="2"/>
-    <col min="13" max="13" width="11.42578125" style="2"/>
-    <col min="17" max="17" width="11.42578125" style="2" customWidth="1"/>
-    <col min="18" max="20" width="11.42578125" customWidth="1"/>
-    <col min="21" max="21" width="11.42578125" style="2"/>
+    <col min="5" max="5" width="11.3828125" style="2"/>
+    <col min="9" max="9" width="11.3828125" style="2"/>
+    <col min="13" max="13" width="11.3828125" style="2"/>
+    <col min="17" max="17" width="11.3828125" style="2" customWidth="1"/>
+    <col min="18" max="20" width="11.3828125" customWidth="1"/>
+    <col min="21" max="21" width="11.3828125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-    </row>
-    <row r="2" spans="1:51" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-    </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A5" s="83" t="s">
-        <v>130</v>
+    <row r="1" spans="1:51" ht="14.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+    </row>
+    <row r="2" spans="1:51" ht="14.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="A5" s="62" t="s">
+        <v>128</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>54</v>
@@ -1523,7 +1543,7 @@
         <v>40</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>48</v>
@@ -1532,38 +1552,38 @@
         <v>41</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>50</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Q5" s="71" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD5" s="81" t="s">
-        <v>117</v>
-      </c>
-      <c r="AE5" s="82"/>
-      <c r="AF5" s="82"/>
-      <c r="AG5" s="59"/>
-      <c r="AH5" s="59"/>
-      <c r="AI5" s="59"/>
-      <c r="AJ5" s="59"/>
-      <c r="AK5" s="59"/>
-      <c r="AL5" s="59"/>
-      <c r="AM5" s="59"/>
-      <c r="AN5" s="59"/>
-      <c r="AO5" s="59"/>
-      <c r="AP5" s="60"/>
+      <c r="Q5" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD5" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE5" s="69"/>
+      <c r="AF5" s="69"/>
+      <c r="AG5" s="70"/>
+      <c r="AH5" s="70"/>
+      <c r="AI5" s="70"/>
+      <c r="AJ5" s="70"/>
+      <c r="AK5" s="70"/>
+      <c r="AL5" s="70"/>
+      <c r="AM5" s="70"/>
+      <c r="AN5" s="70"/>
+      <c r="AO5" s="70"/>
+      <c r="AP5" s="71"/>
       <c r="AT5" s="16"/>
       <c r="AU5" s="16"/>
       <c r="AV5" s="16"/>
@@ -1571,48 +1591,48 @@
       <c r="AX5" s="16"/>
       <c r="AY5" s="16"/>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="B6" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="39"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="65"/>
       <c r="E6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="39"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="65"/>
       <c r="I6" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="J6" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="38"/>
-      <c r="L6" s="39"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="65"/>
       <c r="M6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="37" t="s">
+      <c r="N6" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="O6" s="64"/>
+      <c r="P6" s="65"/>
+      <c r="Q6" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="O6" s="38"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD6" s="65"/>
+      <c r="AD6" s="47"/>
       <c r="AE6" s="28"/>
       <c r="AF6" s="29"/>
-      <c r="AG6" s="54"/>
+      <c r="AG6" s="30"/>
       <c r="AH6" s="30"/>
-      <c r="AI6" s="58"/>
+      <c r="AI6" s="42"/>
       <c r="AJ6" s="30"/>
       <c r="AK6" s="30"/>
       <c r="AL6" s="30"/>
@@ -1624,7 +1644,7 @@
       <c r="AR6" s="21"/>
       <c r="AS6" s="21"/>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.4">
       <c r="B7" s="7">
         <v>44838</v>
       </c>
@@ -1633,7 +1653,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F7" s="1" t="str">
         <f>D7</f>
@@ -1644,7 +1664,7 @@
         <v>16</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>16</v>
@@ -1658,7 +1678,7 @@
         <v>77</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M7" s="18" t="s">
         <v>16</v>
@@ -1672,16 +1692,16 @@
         <v>70</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD7" s="73" t="s">
-        <v>119</v>
-      </c>
-      <c r="AE7" s="74"/>
-      <c r="AF7" s="75"/>
-      <c r="AG7" s="55"/>
-      <c r="AH7" s="52"/>
-      <c r="AI7" s="53"/>
+        <v>106</v>
+      </c>
+      <c r="AD7" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE7" s="55"/>
+      <c r="AF7" s="56"/>
+      <c r="AG7" s="39"/>
+      <c r="AH7" s="37"/>
+      <c r="AI7" s="38"/>
       <c r="AJ7" s="27" t="s">
         <v>18</v>
       </c>
@@ -1697,7 +1717,7 @@
       <c r="AP7" s="32"/>
       <c r="AS7" s="18"/>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.4">
       <c r="B8" s="7">
         <f>D8-1</f>
         <v>44851</v>
@@ -1747,42 +1767,42 @@
       <c r="O8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="P8" s="68">
+      <c r="P8" s="50">
         <v>44946</v>
       </c>
       <c r="S8" s="4"/>
-      <c r="AD8" s="76"/>
-      <c r="AE8" s="77"/>
-      <c r="AF8" s="78"/>
-      <c r="AG8" s="55"/>
-      <c r="AH8" s="52"/>
-      <c r="AI8" s="54"/>
-      <c r="AJ8" s="40" t="s">
+      <c r="AD8" s="57"/>
+      <c r="AE8" s="58"/>
+      <c r="AF8" s="59"/>
+      <c r="AG8" s="39"/>
+      <c r="AH8" s="37"/>
+      <c r="AI8" s="30"/>
+      <c r="AJ8" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="AK8" s="41"/>
-      <c r="AL8" s="42"/>
+      <c r="AK8" s="80"/>
+      <c r="AL8" s="81"/>
       <c r="AM8" s="30"/>
       <c r="AN8" s="30"/>
       <c r="AO8" s="30"/>
       <c r="AP8" s="32"/>
       <c r="AS8" s="18"/>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.4">
       <c r="I9" s="11" t="s">
         <v>16</v>
       </c>
       <c r="M9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="AD9" s="73"/>
-      <c r="AE9" s="74"/>
-      <c r="AF9" s="75"/>
-      <c r="AG9" s="55" t="s">
-        <v>120</v>
-      </c>
-      <c r="AH9" s="52"/>
-      <c r="AI9" s="54"/>
+      <c r="AD9" s="54"/>
+      <c r="AE9" s="55"/>
+      <c r="AF9" s="56"/>
+      <c r="AG9" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="AH9" s="37"/>
+      <c r="AI9" s="30"/>
       <c r="AJ9" s="27" t="s">
         <v>22</v>
       </c>
@@ -1801,7 +1821,7 @@
       <c r="AS9" s="18"/>
       <c r="AW9" s="13"/>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.4">
       <c r="I10" s="11" t="s">
         <v>16</v>
       </c>
@@ -1810,16 +1830,16 @@
       </c>
       <c r="Q10"/>
       <c r="U10"/>
-      <c r="AD10" s="73"/>
-      <c r="AE10" s="66" t="s">
-        <v>121</v>
-      </c>
-      <c r="AF10" s="75"/>
-      <c r="AG10" s="52" t="s">
+      <c r="AD10" s="54"/>
+      <c r="AE10" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF10" s="56"/>
+      <c r="AG10" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="AH10" s="52"/>
-      <c r="AI10" s="54"/>
+      <c r="AH10" s="37"/>
+      <c r="AI10" s="30"/>
       <c r="AJ10" s="27" t="s">
         <v>25</v>
       </c>
@@ -1837,7 +1857,7 @@
       <c r="AP10" s="32"/>
       <c r="AS10" s="18"/>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.4">
       <c r="I11" s="11" t="s">
         <v>16</v>
       </c>
@@ -1845,10 +1865,10 @@
         <v>42</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M11" s="18" t="s">
         <v>16</v>
@@ -1856,11 +1876,11 @@
       <c r="Q11"/>
       <c r="U11"/>
       <c r="AD11" s="33"/>
-      <c r="AE11" s="57"/>
-      <c r="AF11" s="79"/>
-      <c r="AG11" s="55"/>
-      <c r="AH11" s="52"/>
-      <c r="AI11" s="54"/>
+      <c r="AE11" s="41"/>
+      <c r="AF11" s="60"/>
+      <c r="AG11" s="39"/>
+      <c r="AH11" s="37"/>
+      <c r="AI11" s="30"/>
       <c r="AJ11" s="30"/>
       <c r="AK11" s="30"/>
       <c r="AL11" s="30"/>
@@ -1870,26 +1890,26 @@
       <c r="AP11" s="32"/>
       <c r="AS11" s="18"/>
     </row>
-    <row r="12" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="I12" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="37" t="s">
+      <c r="J12" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="K12" s="38"/>
-      <c r="L12" s="39"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="65"/>
       <c r="M12" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD12" s="61"/>
-      <c r="AE12" s="74"/>
-      <c r="AF12" s="63"/>
-      <c r="AG12" s="55"/>
-      <c r="AH12" s="52"/>
-      <c r="AI12" s="54"/>
+        <v>70</v>
+      </c>
+      <c r="AD12" s="43"/>
+      <c r="AE12" s="55"/>
+      <c r="AF12" s="45"/>
+      <c r="AG12" s="39"/>
+      <c r="AH12" s="37"/>
+      <c r="AI12" s="30"/>
       <c r="AJ12" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AK12" s="30"/>
       <c r="AL12" s="30"/>
@@ -1899,15 +1919,15 @@
       <c r="AP12" s="32"/>
       <c r="AS12" s="20"/>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B13" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="E13" s="46"/>
+    <row r="13" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="B13" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="67"/>
       <c r="I13" s="11" t="s">
         <v>16</v>
       </c>
@@ -1920,23 +1940,23 @@
         <v>77</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M13" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="AD13" s="80" t="s">
+      <c r="AD13" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE13" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="AE13" s="52" t="s">
-        <v>125</v>
-      </c>
       <c r="AF13" s="32"/>
-      <c r="AG13" s="55"/>
-      <c r="AH13" s="52"/>
-      <c r="AI13" s="54"/>
+      <c r="AG13" s="39"/>
+      <c r="AH13" s="37"/>
+      <c r="AI13" s="30"/>
       <c r="AJ13" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AK13" s="30"/>
       <c r="AL13" s="30"/>
@@ -1946,15 +1966,15 @@
       <c r="AP13" s="32"/>
       <c r="AS13" s="11"/>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B14" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="E14" s="46"/>
+    <row r="14" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="B14" s="72" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="72"/>
+      <c r="D14" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="67"/>
       <c r="I14" s="11" t="s">
         <v>16</v>
       </c>
@@ -1973,11 +1993,11 @@
       <c r="M14" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="AD14" s="62"/>
+      <c r="AD14" s="44"/>
       <c r="AE14" s="34"/>
-      <c r="AF14" s="64"/>
-      <c r="AG14" s="56"/>
-      <c r="AH14" s="57"/>
+      <c r="AF14" s="46"/>
+      <c r="AG14" s="40"/>
+      <c r="AH14" s="41"/>
       <c r="AI14" s="34"/>
       <c r="AJ14" s="34"/>
       <c r="AK14" s="34"/>
@@ -1988,28 +2008,28 @@
       <c r="AP14" s="35"/>
       <c r="AS14" s="11"/>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="46" t="s">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="67" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="67"/>
+      <c r="I15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS15" s="11"/>
+    </row>
+    <row r="16" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="E15" s="46"/>
-      <c r="I15" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="M15" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="AS15" s="11"/>
-    </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16" s="46"/>
+      <c r="E16" s="67"/>
       <c r="I16" s="11" t="s">
         <v>16</v>
       </c>
@@ -2018,15 +2038,15 @@
       </c>
       <c r="AS16" s="11"/>
     </row>
-    <row r="17" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B17" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" s="43"/>
-      <c r="D17" s="44">
+    <row r="17" spans="2:45" x14ac:dyDescent="0.4">
+      <c r="B17" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="77"/>
+      <c r="D17" s="76">
         <v>4</v>
       </c>
-      <c r="E17" s="44"/>
+      <c r="E17" s="76"/>
       <c r="I17" s="11" t="s">
         <v>16</v>
       </c>
@@ -2035,11 +2055,11 @@
       </c>
       <c r="AS17" s="11"/>
     </row>
-    <row r="18" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
+    <row r="18" spans="2:45" x14ac:dyDescent="0.4">
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
       <c r="G18" s="4"/>
       <c r="I18" s="11" t="s">
         <v>16</v>
@@ -2048,7 +2068,7 @@
         <v>43</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>59</v>
@@ -2058,33 +2078,33 @@
       </c>
       <c r="AS18" s="15"/>
     </row>
-    <row r="19" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B19" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="C19" s="43"/>
-      <c r="D19" s="44">
+    <row r="19" spans="2:45" x14ac:dyDescent="0.4">
+      <c r="B19" s="77" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="77"/>
+      <c r="D19" s="76">
         <v>12</v>
       </c>
-      <c r="E19" s="44"/>
+      <c r="E19" s="76"/>
       <c r="G19" s="4"/>
       <c r="I19" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="37" t="s">
+      <c r="J19" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="K19" s="38"/>
-      <c r="L19" s="39"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="65"/>
       <c r="M19" s="21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="2:45" x14ac:dyDescent="0.4">
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
       <c r="I20" s="11" t="s">
         <v>16</v>
       </c>
@@ -2097,19 +2117,19 @@
         <v>84</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M20" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B21" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" s="45"/>
+    <row r="21" spans="2:45" x14ac:dyDescent="0.4">
+      <c r="B21" s="72" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="72"/>
       <c r="D21" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E21" s="24">
         <v>44838</v>
@@ -2133,11 +2153,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
+    <row r="22" spans="2:45" x14ac:dyDescent="0.4">
+      <c r="B22" s="72"/>
+      <c r="C22" s="72"/>
       <c r="D22" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E22" s="24">
         <v>44874</v>
@@ -2151,11 +2171,11 @@
       <c r="U22"/>
       <c r="Y22" s="3"/>
     </row>
-    <row r="23" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
+    <row r="23" spans="2:45" x14ac:dyDescent="0.4">
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
       <c r="D23" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E23" s="24">
         <v>44936</v>
@@ -2169,15 +2189,15 @@
       <c r="U23"/>
       <c r="Y23" s="3"/>
     </row>
-    <row r="24" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B24" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" s="46"/>
-      <c r="D24" s="47">
+    <row r="24" spans="2:45" x14ac:dyDescent="0.4">
+      <c r="B24" s="67" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="67"/>
+      <c r="D24" s="78">
         <v>44844</v>
       </c>
-      <c r="E24" s="46"/>
+      <c r="E24" s="67"/>
       <c r="I24" s="11" t="s">
         <v>16</v>
       </c>
@@ -2186,7 +2206,7 @@
       </c>
       <c r="U24"/>
     </row>
-    <row r="25" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:45" x14ac:dyDescent="0.4">
       <c r="I25" s="11" t="s">
         <v>16</v>
       </c>
@@ -2194,7 +2214,7 @@
         <v>44</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>49</v>
@@ -2204,21 +2224,21 @@
       </c>
       <c r="U25"/>
     </row>
-    <row r="26" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:45" x14ac:dyDescent="0.4">
       <c r="I26" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="37" t="s">
+      <c r="J26" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="K26" s="38"/>
-      <c r="L26" s="39"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="65"/>
       <c r="M26" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U26"/>
     </row>
-    <row r="27" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:45" x14ac:dyDescent="0.4">
       <c r="I27" s="11" t="s">
         <v>16</v>
       </c>
@@ -2231,14 +2251,14 @@
         <v>70</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M27" s="18" t="s">
         <v>16</v>
       </c>
       <c r="U27"/>
     </row>
-    <row r="28" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:45" x14ac:dyDescent="0.4">
       <c r="I28" s="11" t="s">
         <v>16</v>
       </c>
@@ -2259,7 +2279,7 @@
       </c>
       <c r="U28"/>
     </row>
-    <row r="29" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:45" x14ac:dyDescent="0.4">
       <c r="I29" s="11" t="s">
         <v>16</v>
       </c>
@@ -2269,7 +2289,7 @@
       <c r="Q29"/>
       <c r="U29"/>
     </row>
-    <row r="30" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:45" x14ac:dyDescent="0.4">
       <c r="I30" s="11" t="s">
         <v>16</v>
       </c>
@@ -2277,15 +2297,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:45" x14ac:dyDescent="0.4">
       <c r="I31" s="11" t="s">
         <v>16</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>49</v>
@@ -2294,20 +2314,26 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="I32" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="J32" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="K32" s="38"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="9:49" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:45" x14ac:dyDescent="0.4">
+      <c r="H32" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="I32" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" s="63" t="s">
+        <v>103</v>
+      </c>
+      <c r="K32" s="64"/>
+      <c r="L32" s="65"/>
+      <c r="M32" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="8:49" x14ac:dyDescent="0.4">
+      <c r="H33" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="I33" s="11" t="s">
         <v>16</v>
       </c>
@@ -2315,18 +2341,15 @@
         <f>H7</f>
         <v>04.10.2022</v>
       </c>
-      <c r="K33" s="1">
-        <f>L34-L33</f>
-        <v>70</v>
-      </c>
+      <c r="K33" s="1"/>
       <c r="L33" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="M33" s="21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="9:49" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="8:49" x14ac:dyDescent="0.4">
+      <c r="H34" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="I34" s="11" t="s">
         <v>16</v>
       </c>
@@ -2334,29 +2357,81 @@
         <f>L34-18</f>
         <v>44914</v>
       </c>
-      <c r="K34" s="19">
-        <f>N7-L33</f>
-        <v>0</v>
-      </c>
+      <c r="K34" s="19"/>
       <c r="L34" s="7">
         <f>N8</f>
         <v>44932</v>
       </c>
-    </row>
-    <row r="35" spans="9:49" x14ac:dyDescent="0.25">
+      <c r="M34" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="N34" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="O34" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="P34" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q34" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="R34" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="S34" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="T34" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="U34" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="V34" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="W34" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="X34" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y34" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z34" s="21"/>
+    </row>
+    <row r="35" spans="8:49" x14ac:dyDescent="0.4">
+      <c r="H35" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="I35" s="11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="36" spans="9:49" x14ac:dyDescent="0.25">
+      <c r="Y35" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="8:49" x14ac:dyDescent="0.4">
+      <c r="H36" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="I36" s="11" t="s">
         <v>16</v>
       </c>
       <c r="M36"/>
       <c r="Q36"/>
       <c r="U36"/>
-    </row>
-    <row r="37" spans="9:49" x14ac:dyDescent="0.25">
+      <c r="Y36" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="8:49" x14ac:dyDescent="0.4">
+      <c r="H37" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="I37" s="11" t="s">
         <v>16</v>
       </c>
@@ -2364,16 +2439,16 @@
         <v>0</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N37" s="1" t="s">
         <v>2</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P37" s="1" t="s">
         <v>47</v>
@@ -2382,7 +2457,7 @@
         <v>3</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T37" s="1" t="s">
         <v>54</v>
@@ -2391,28 +2466,28 @@
         <v>4</v>
       </c>
       <c r="W37" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X37" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y37" s="71" t="s">
-        <v>126</v>
+        <v>108</v>
+      </c>
+      <c r="Y37" s="13" t="s">
+        <v>125</v>
       </c>
       <c r="AL37" s="1" t="s">
         <v>10</v>
       </c>
       <c r="AM37" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AN37" s="1" t="s">
         <v>48</v>
       </c>
       <c r="AP37" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AQ37" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AR37" s="1" t="s">
         <v>62</v>
@@ -2422,113 +2497,119 @@
         <v>11</v>
       </c>
       <c r="AU37" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AV37" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AW37" s="72" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="38" spans="9:49" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="AW37" s="53" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="8:49" x14ac:dyDescent="0.4">
+      <c r="H38" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="I38" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J38" s="37" t="s">
+      <c r="J38" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="K38" s="38"/>
-      <c r="L38" s="39"/>
+      <c r="K38" s="64"/>
+      <c r="L38" s="65"/>
       <c r="M38" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N38" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="O38" s="38"/>
-      <c r="P38" s="39"/>
+      <c r="N38" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="O38" s="64"/>
+      <c r="P38" s="65"/>
       <c r="Q38" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="R38" s="48" t="s">
+      <c r="R38" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="S38" s="49"/>
-      <c r="T38" s="50"/>
+      <c r="S38" s="74"/>
+      <c r="T38" s="75"/>
       <c r="U38" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="V38" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="V38" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="W38" s="49"/>
-      <c r="X38" s="50"/>
+      <c r="W38" s="74"/>
+      <c r="X38" s="75"/>
       <c r="Y38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Z38" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AA38" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AB38" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AC38" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AD38" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AE38" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AF38" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG38" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH38" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AI38" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AJ38" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AK38" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="AL38" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="AM38" s="38"/>
-      <c r="AN38" s="39"/>
+        <v>113</v>
+      </c>
+      <c r="AL38" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM38" s="64"/>
+      <c r="AN38" s="65"/>
       <c r="AO38" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AP38" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="AQ38" s="38"/>
-      <c r="AR38" s="39"/>
+      <c r="AP38" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ38" s="64"/>
+      <c r="AR38" s="65"/>
       <c r="AS38" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AT38" s="37" t="s">
+      <c r="AT38" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="AU38" s="38"/>
-      <c r="AV38" s="39"/>
+      <c r="AU38" s="64"/>
+      <c r="AV38" s="65"/>
       <c r="AW38" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="9:49" x14ac:dyDescent="0.25">
+    <row r="39" spans="8:49" x14ac:dyDescent="0.4">
+      <c r="H39" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="I39" s="18" t="s">
         <v>16</v>
       </c>
@@ -2541,7 +2622,7 @@
         <v>12</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M39" s="18" t="s">
         <v>16</v>
@@ -2555,7 +2636,7 @@
         <v>7</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q39" s="18" t="s">
         <v>16</v>
@@ -2569,7 +2650,7 @@
         <v>3</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U39" s="11" t="s">
         <v>16</v>
@@ -2583,7 +2664,7 @@
         <v>5</v>
       </c>
       <c r="X39" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AK39" s="11" t="s">
         <v>16</v>
@@ -2597,7 +2678,7 @@
         <v>10</v>
       </c>
       <c r="AN39" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AP39" s="1" t="str">
         <f>AN39</f>
@@ -2608,20 +2689,23 @@
         <v>3</v>
       </c>
       <c r="AR39" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AS39" s="2"/>
-      <c r="AT39" s="67" t="s">
-        <v>121</v>
+      <c r="AT39" s="49" t="s">
+        <v>120</v>
       </c>
       <c r="AU39" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AV39" s="67" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="40" spans="9:49" x14ac:dyDescent="0.25">
+      <c r="AV39" s="49" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="8:49" x14ac:dyDescent="0.4">
+      <c r="H40" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="I40" s="18" t="s">
         <v>16</v>
       </c>
@@ -2678,7 +2762,7 @@
         <f>AL39-X39</f>
         <v>35</v>
       </c>
-      <c r="X40" s="68">
+      <c r="X40" s="50">
         <v>44874</v>
       </c>
       <c r="AK40" s="11" t="s">
@@ -2708,40 +2792,46 @@
         <v>44935</v>
       </c>
       <c r="AS40" s="2"/>
-      <c r="AT40" s="68" t="s">
-        <v>121</v>
+      <c r="AT40" s="50" t="s">
+        <v>120</v>
       </c>
       <c r="AU40" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AV40" s="68" t="s">
+      <c r="AV40" s="50" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="8:49" x14ac:dyDescent="0.4">
+      <c r="H41" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="M41" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q41" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="U41" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK41" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AT41" s="52" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="41" spans="9:49" x14ac:dyDescent="0.25">
-      <c r="I41" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="M41" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q41" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="U41" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK41" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="AT41" s="70" t="s">
-        <v>122</v>
-      </c>
-      <c r="AU41" s="69">
+      <c r="AU41" s="51">
         <v>44936</v>
       </c>
     </row>
-    <row r="42" spans="9:49" x14ac:dyDescent="0.25">
+    <row r="42" spans="8:49" x14ac:dyDescent="0.4">
+      <c r="H42" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="I42" s="18" t="s">
         <v>16</v>
       </c>
@@ -2754,11 +2844,17 @@
       <c r="U42" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="AK42" s="12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="43" spans="9:49" x14ac:dyDescent="0.25">
+      <c r="AK42" s="82" t="s">
+        <v>132</v>
+      </c>
+      <c r="AL42" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="8:49" x14ac:dyDescent="0.4">
+      <c r="H43" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="I43" s="18" t="s">
         <v>16</v>
       </c>
@@ -2766,7 +2862,7 @@
         <v>1</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>54</v>
@@ -2784,7 +2880,7 @@
         <v>6</v>
       </c>
       <c r="W43" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="X43" s="1" t="s">
         <v>54</v>
@@ -2793,19 +2889,19 @@
         <v>7</v>
       </c>
       <c r="AA43" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AB43" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC43" s="83" t="s">
-        <v>128</v>
+        <v>80</v>
+      </c>
+      <c r="AC43" s="62" t="s">
+        <v>127</v>
       </c>
       <c r="AD43" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AE43" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AF43" s="1" t="s">
         <v>49</v>
@@ -2814,7 +2910,7 @@
         <v>9</v>
       </c>
       <c r="AI43" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AJ43" s="1" t="s">
         <v>47</v>
@@ -2822,18 +2918,24 @@
       <c r="AK43" s="11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="9:49" x14ac:dyDescent="0.25">
+      <c r="AL43" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="8:49" x14ac:dyDescent="0.4">
+      <c r="H44" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="I44" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="J44" s="37" t="s">
+      <c r="J44" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="K44" s="38"/>
-      <c r="L44" s="39"/>
+      <c r="K44" s="64"/>
+      <c r="L44" s="65"/>
       <c r="M44" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q44" s="18" t="s">
         <v>16</v>
@@ -2841,40 +2943,46 @@
       <c r="U44" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="V44" s="37" t="s">
+      <c r="V44" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="W44" s="38"/>
-      <c r="X44" s="39"/>
+      <c r="W44" s="64"/>
+      <c r="X44" s="65"/>
       <c r="Y44" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Z44" s="37" t="s">
+      <c r="Z44" s="63" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA44" s="64"/>
+      <c r="AB44" s="65"/>
+      <c r="AC44" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD44" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="AA44" s="38"/>
-      <c r="AB44" s="39"/>
-      <c r="AC44" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD44" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE44" s="38"/>
-      <c r="AF44" s="39"/>
+      <c r="AE44" s="64"/>
+      <c r="AF44" s="65"/>
       <c r="AG44" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AH44" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="AI44" s="38"/>
-      <c r="AJ44" s="39"/>
+      <c r="AH44" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI44" s="64"/>
+      <c r="AJ44" s="65"/>
       <c r="AK44" s="15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="45" spans="9:49" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="AL44" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="8:49" x14ac:dyDescent="0.4">
+      <c r="H45" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="I45" s="18" t="s">
         <v>16</v>
       </c>
@@ -2887,7 +2995,7 @@
         <v>12</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q45" s="18" t="s">
         <v>16</v>
@@ -2902,7 +3010,7 @@
         <v>17</v>
       </c>
       <c r="X45" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z45" s="1" t="str">
         <f>X45</f>
@@ -2913,7 +3021,10 @@
         <v>17</v>
       </c>
       <c r="AB45" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="AC45" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="AD45" s="1" t="str">
         <f>AB45</f>
@@ -2924,7 +3035,7 @@
         <v>10</v>
       </c>
       <c r="AF45" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AH45" s="1" t="str">
         <f>AF45</f>
@@ -2935,10 +3046,16 @@
         <v>10</v>
       </c>
       <c r="AJ45" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="46" spans="9:49" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="AL45" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="8:49" x14ac:dyDescent="0.4">
+      <c r="H46" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="I46" s="18" t="s">
         <v>16</v>
       </c>
@@ -2983,6 +3100,9 @@
         <f>AD46</f>
         <v>44893</v>
       </c>
+      <c r="AC46" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="AD46" s="7">
         <f>AF46-14</f>
         <v>44893</v>
@@ -3007,8 +3127,14 @@
         <f>AL40</f>
         <v>44914</v>
       </c>
-    </row>
-    <row r="47" spans="9:49" x14ac:dyDescent="0.25">
+      <c r="AL46" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="8:49" x14ac:dyDescent="0.4">
+      <c r="H47" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="I47" s="18" t="s">
         <v>16</v>
       </c>
@@ -3017,8 +3143,17 @@
         <v>16</v>
       </c>
       <c r="U47"/>
-    </row>
-    <row r="48" spans="9:49" x14ac:dyDescent="0.25">
+      <c r="AC47" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL47" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="8:49" x14ac:dyDescent="0.4">
+      <c r="H48" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="I48" s="18" t="s">
         <v>16</v>
       </c>
@@ -3027,8 +3162,17 @@
         <v>16</v>
       </c>
       <c r="U48"/>
-    </row>
-    <row r="49" spans="9:21" x14ac:dyDescent="0.25">
+      <c r="AC48" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL48" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="8:38" x14ac:dyDescent="0.4">
+      <c r="H49" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="I49" s="18" t="s">
         <v>16</v>
       </c>
@@ -3036,7 +3180,7 @@
         <v>5</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L49" s="1" t="s">
         <v>59</v>
@@ -3046,34 +3190,52 @@
         <v>16</v>
       </c>
       <c r="U49"/>
-    </row>
-    <row r="50" spans="9:21" x14ac:dyDescent="0.25">
+      <c r="AC49" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL49" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="8:38" x14ac:dyDescent="0.4">
+      <c r="H50" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="I50" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="J50" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="K50" s="38"/>
-      <c r="L50" s="39"/>
+      <c r="J50" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="K50" s="64"/>
+      <c r="L50" s="65"/>
       <c r="M50" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="N50" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="O50" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="P50" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q50" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="N50" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="O50" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="P50" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q50" s="21" t="s">
-        <v>87</v>
-      </c>
       <c r="U50"/>
-    </row>
-    <row r="51" spans="9:21" x14ac:dyDescent="0.25">
+      <c r="AC50" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL50" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="8:38" x14ac:dyDescent="0.4">
+      <c r="H51" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="J51" s="1" t="str">
         <f>H7</f>
         <v>04.10.2022</v>
@@ -3083,13 +3245,22 @@
         <v>14</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M51"/>
       <c r="Q51" s="18"/>
       <c r="U51"/>
-    </row>
-    <row r="52" spans="9:21" x14ac:dyDescent="0.25">
+      <c r="AC51" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL51" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="8:38" x14ac:dyDescent="0.4">
+      <c r="H52" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="J52" s="7">
         <f>L52-1</f>
         <v>44861</v>
@@ -3105,55 +3276,157 @@
       <c r="M52"/>
       <c r="Q52"/>
       <c r="U52"/>
-    </row>
-    <row r="53" spans="9:21" x14ac:dyDescent="0.25">
+      <c r="AC52" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL52" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="8:38" x14ac:dyDescent="0.4">
+      <c r="H53" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="U53"/>
-    </row>
-    <row r="54" spans="9:21" x14ac:dyDescent="0.25">
+      <c r="AC53" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL53" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="8:38" x14ac:dyDescent="0.4">
+      <c r="H54" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="U54"/>
-    </row>
-    <row r="55" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="U55"/>
-    </row>
-    <row r="56" spans="9:21" x14ac:dyDescent="0.25">
+      <c r="AC54" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL54" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="8:38" x14ac:dyDescent="0.4">
+      <c r="H55" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="I55" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="J55" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="K55" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="L55" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="M55" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="N55" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="O55" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="P55" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q55" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="R55" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="S55" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="T55" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="U55" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="V55" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="W55" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="X55" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y55" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z55" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA55" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB55" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC55" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD55" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE55" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF55" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG55" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH55" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI55" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ55" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK55" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL55" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="8:38" x14ac:dyDescent="0.4">
       <c r="U56"/>
     </row>
-    <row r="57" spans="9:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="8:38" x14ac:dyDescent="0.4">
       <c r="U57"/>
     </row>
-    <row r="58" spans="9:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="8:38" x14ac:dyDescent="0.4">
       <c r="U58"/>
     </row>
-    <row r="59" spans="9:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="8:38" x14ac:dyDescent="0.4">
       <c r="Q59"/>
       <c r="U59"/>
     </row>
-    <row r="60" spans="9:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="8:38" x14ac:dyDescent="0.4">
       <c r="Q60"/>
       <c r="U60"/>
     </row>
-    <row r="61" spans="9:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="8:38" x14ac:dyDescent="0.4">
       <c r="U61"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="B1:H2"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="AD5:AP5"/>
-    <mergeCell ref="B14:C16"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="AT38:AV38"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="V38:X38"/>
-    <mergeCell ref="R38:T38"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D19:E20"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="V44:X44"/>
+    <mergeCell ref="Z44:AB44"/>
     <mergeCell ref="B17:C18"/>
     <mergeCell ref="D17:E18"/>
     <mergeCell ref="B21:C23"/>
@@ -3166,14 +3439,28 @@
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="B19:C20"/>
     <mergeCell ref="AD44:AF44"/>
-    <mergeCell ref="J12:L12"/>
     <mergeCell ref="J26:L26"/>
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="J32:L32"/>
+    <mergeCell ref="AT38:AV38"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="V38:X38"/>
+    <mergeCell ref="R38:T38"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D19:E20"/>
+    <mergeCell ref="AD5:AP5"/>
+    <mergeCell ref="B14:C16"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="J12:L12"/>
     <mergeCell ref="AJ8:AL8"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="V44:X44"/>
-    <mergeCell ref="Z44:AB44"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="B1:H2"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -3188,15 +3475,15 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.4">
       <c r="E2" s="2"/>
       <c r="I2" s="2"/>
       <c r="M2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>28</v>
       </c>
@@ -3213,15 +3500,15 @@
       <c r="M3" s="2"/>
       <c r="Q3" s="2"/>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="38"/>
-      <c r="F4" s="39"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="65"/>
       <c r="H4" s="4" t="s">
         <v>29</v>
       </c>
@@ -3241,7 +3528,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.4">
       <c r="D5" s="1" t="s">
         <v>22</v>
       </c>
@@ -3270,7 +3557,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.4">
       <c r="D6" s="1" t="s">
         <v>25</v>
       </c>
@@ -3284,7 +3571,7 @@
       <c r="M6" s="2"/>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.4">
       <c r="F7" s="2"/>
       <c r="H7" s="8"/>
       <c r="I7" s="14" t="s">
@@ -3295,7 +3582,7 @@
       <c r="N7" s="2"/>
       <c r="Q7" s="2"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.4">
       <c r="E8" s="2"/>
       <c r="H8" s="15" t="s">
         <v>13</v>
@@ -3306,15 +3593,15 @@
       <c r="M8" s="2"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.4">
       <c r="E9" s="2"/>
       <c r="I9" s="2"/>
       <c r="M9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.4">
       <c r="H15" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/PM/640_Netzplan/Netzplan_2.xlsx
+++ b/PM/640_Netzplan/Netzplan_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moritz\Documents\GitHub\labor_mod_sim\PM\640_Netzplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFA851D-1A56-4B01-B0E8-401D485B2C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE89914-EFF2-4246-ABD3-810860B6B53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="195" yWindow="825" windowWidth="15825" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -247,9 +247,6 @@
     <t>Beweis der Invertierbarkeit</t>
   </si>
   <si>
-    <t>9h</t>
-  </si>
-  <si>
     <t>Umformung nach φ_1</t>
   </si>
   <si>
@@ -609,8 +606,26 @@
     <t>Implementierung des Zustandsraum</t>
   </si>
   <si>
+    <t>Bis Abgabe</t>
+  </si>
+  <si>
+    <t>--------&lt;---------</t>
+  </si>
+  <si>
+    <t>&lt;------------------</t>
+  </si>
+  <si>
     <r>
-      <t>MS3'</t>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MS3</t>
     </r>
     <r>
       <rPr>
@@ -629,27 +644,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>------</t>
+      <t>-------</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-</t>
-    </r>
-  </si>
-  <si>
-    <t>Bis Abgabe</t>
-  </si>
-  <si>
-    <t>--------&lt;---------</t>
-  </si>
-  <si>
-    <t>&lt;------------------</t>
+  </si>
+  <si>
+    <t>7h</t>
   </si>
 </sst>
 </file>
@@ -1115,6 +1114,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1124,12 +1126,30 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1142,27 +1162,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1172,7 +1171,7 @@
     <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1492,49 +1491,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S9" zoomScale="59" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AD21" sqref="AD21"/>
+    <sheetView tabSelected="1" topLeftCell="AG16" zoomScale="76" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AR37" sqref="AR37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="11.3828125" style="2"/>
-    <col min="9" max="9" width="11.3828125" style="2"/>
-    <col min="13" max="13" width="11.3828125" style="2"/>
-    <col min="17" max="17" width="11.3828125" style="2" customWidth="1"/>
-    <col min="18" max="20" width="11.3828125" customWidth="1"/>
-    <col min="21" max="21" width="11.3828125" style="2"/>
+    <col min="5" max="5" width="11.42578125" style="2"/>
+    <col min="9" max="9" width="11.42578125" style="2"/>
+    <col min="13" max="13" width="11.42578125" style="2"/>
+    <col min="17" max="17" width="11.42578125" style="2" customWidth="1"/>
+    <col min="18" max="20" width="11.42578125" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" ht="14.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="66" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-    </row>
-    <row r="2" spans="1:51" ht="14.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-    </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:51" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="82" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+    </row>
+    <row r="2" spans="1:51" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5" s="62" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>54</v>
@@ -1543,7 +1542,7 @@
         <v>40</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>48</v>
@@ -1552,38 +1551,38 @@
         <v>41</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>50</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>50</v>
       </c>
       <c r="Q5" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD5" s="68" t="s">
-        <v>116</v>
-      </c>
-      <c r="AE5" s="69"/>
-      <c r="AF5" s="69"/>
-      <c r="AG5" s="70"/>
-      <c r="AH5" s="70"/>
-      <c r="AI5" s="70"/>
-      <c r="AJ5" s="70"/>
-      <c r="AK5" s="70"/>
-      <c r="AL5" s="70"/>
-      <c r="AM5" s="70"/>
-      <c r="AN5" s="70"/>
-      <c r="AO5" s="70"/>
-      <c r="AP5" s="71"/>
+        <v>121</v>
+      </c>
+      <c r="AD5" s="75" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE5" s="76"/>
+      <c r="AF5" s="76"/>
+      <c r="AG5" s="77"/>
+      <c r="AH5" s="77"/>
+      <c r="AI5" s="77"/>
+      <c r="AJ5" s="77"/>
+      <c r="AK5" s="77"/>
+      <c r="AL5" s="77"/>
+      <c r="AM5" s="77"/>
+      <c r="AN5" s="77"/>
+      <c r="AO5" s="77"/>
+      <c r="AP5" s="78"/>
       <c r="AT5" s="16"/>
       <c r="AU5" s="16"/>
       <c r="AV5" s="16"/>
@@ -1591,41 +1590,41 @@
       <c r="AX5" s="16"/>
       <c r="AY5" s="16"/>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B6" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="64"/>
-      <c r="D6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="66"/>
       <c r="E6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="63" t="s">
+      <c r="F6" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="64"/>
-      <c r="H6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="66"/>
       <c r="I6" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="J6" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="64"/>
-      <c r="L6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="66"/>
       <c r="M6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="63" t="s">
+      <c r="N6" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="O6" s="65"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="26" t="s">
         <v>100</v>
-      </c>
-      <c r="O6" s="64"/>
-      <c r="P6" s="65"/>
-      <c r="Q6" s="26" t="s">
-        <v>101</v>
       </c>
       <c r="AD6" s="47"/>
       <c r="AE6" s="28"/>
@@ -1644,7 +1643,7 @@
       <c r="AR6" s="21"/>
       <c r="AS6" s="21"/>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
         <v>44838</v>
       </c>
@@ -1653,7 +1652,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F7" s="1" t="str">
         <f>D7</f>
@@ -1664,7 +1663,7 @@
         <v>16</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>16</v>
@@ -1678,7 +1677,7 @@
         <v>77</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M7" s="18" t="s">
         <v>16</v>
@@ -1692,10 +1691,10 @@
         <v>70</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AD7" s="54" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AE7" s="55"/>
       <c r="AF7" s="56"/>
@@ -1717,7 +1716,7 @@
       <c r="AP7" s="32"/>
       <c r="AS7" s="18"/>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <f>D8-1</f>
         <v>44851</v>
@@ -1788,7 +1787,7 @@
       <c r="AP8" s="32"/>
       <c r="AS8" s="18"/>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="I9" s="11" t="s">
         <v>16</v>
       </c>
@@ -1799,7 +1798,7 @@
       <c r="AE9" s="55"/>
       <c r="AF9" s="56"/>
       <c r="AG9" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AH9" s="37"/>
       <c r="AI9" s="30"/>
@@ -1821,7 +1820,7 @@
       <c r="AS9" s="18"/>
       <c r="AW9" s="13"/>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
       <c r="I10" s="11" t="s">
         <v>16</v>
       </c>
@@ -1832,7 +1831,7 @@
       <c r="U10"/>
       <c r="AD10" s="54"/>
       <c r="AE10" s="48" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF10" s="56"/>
       <c r="AG10" s="37" t="s">
@@ -1857,7 +1856,7 @@
       <c r="AP10" s="32"/>
       <c r="AS10" s="18"/>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
       <c r="I11" s="11" t="s">
         <v>16</v>
       </c>
@@ -1865,10 +1864,10 @@
         <v>42</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M11" s="18" t="s">
         <v>16</v>
@@ -1890,17 +1889,17 @@
       <c r="AP11" s="32"/>
       <c r="AS11" s="18"/>
     </row>
-    <row r="12" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I12" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="63" t="s">
+      <c r="J12" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="K12" s="64"/>
-      <c r="L12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="66"/>
       <c r="M12" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AD12" s="43"/>
       <c r="AE12" s="55"/>
@@ -1909,7 +1908,7 @@
       <c r="AH12" s="37"/>
       <c r="AI12" s="30"/>
       <c r="AJ12" s="30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AK12" s="30"/>
       <c r="AL12" s="30"/>
@@ -1919,15 +1918,15 @@
       <c r="AP12" s="32"/>
       <c r="AS12" s="20"/>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.4">
-      <c r="B13" s="67" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" s="67"/>
+    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="B13" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="70"/>
       <c r="I13" s="11" t="s">
         <v>16</v>
       </c>
@@ -1940,23 +1939,23 @@
         <v>77</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M13" s="18" t="s">
         <v>16</v>
       </c>
       <c r="AD13" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE13" s="37" t="s">
         <v>123</v>
-      </c>
-      <c r="AE13" s="37" t="s">
-        <v>124</v>
       </c>
       <c r="AF13" s="32"/>
       <c r="AG13" s="39"/>
       <c r="AH13" s="37"/>
       <c r="AI13" s="30"/>
       <c r="AJ13" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AK13" s="30"/>
       <c r="AL13" s="30"/>
@@ -1966,15 +1965,15 @@
       <c r="AP13" s="32"/>
       <c r="AS13" s="11"/>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.4">
-      <c r="B14" s="72" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" s="72"/>
-      <c r="D14" s="67" t="s">
-        <v>90</v>
-      </c>
-      <c r="E14" s="67"/>
+    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="B14" s="69" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="69"/>
+      <c r="D14" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="70"/>
       <c r="I14" s="11" t="s">
         <v>16</v>
       </c>
@@ -2008,28 +2007,28 @@
       <c r="AP14" s="35"/>
       <c r="AS14" s="11"/>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.4">
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="67" t="s">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="70"/>
+      <c r="I15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS15" s="11"/>
+    </row>
+    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="E15" s="67"/>
-      <c r="I15" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="M15" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="AS15" s="11"/>
-    </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.4">
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="67" t="s">
-        <v>92</v>
-      </c>
-      <c r="E16" s="67"/>
+      <c r="E16" s="70"/>
       <c r="I16" s="11" t="s">
         <v>16</v>
       </c>
@@ -2038,15 +2037,15 @@
       </c>
       <c r="AS16" s="11"/>
     </row>
-    <row r="17" spans="2:45" x14ac:dyDescent="0.4">
-      <c r="B17" s="77" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="77"/>
-      <c r="D17" s="76">
+    <row r="17" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B17" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="67"/>
+      <c r="D17" s="68">
         <v>4</v>
       </c>
-      <c r="E17" s="76"/>
+      <c r="E17" s="68"/>
       <c r="I17" s="11" t="s">
         <v>16</v>
       </c>
@@ -2055,11 +2054,11 @@
       </c>
       <c r="AS17" s="11"/>
     </row>
-    <row r="18" spans="2:45" x14ac:dyDescent="0.4">
-      <c r="B18" s="77"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
+    <row r="18" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B18" s="67"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
       <c r="G18" s="4"/>
       <c r="I18" s="11" t="s">
         <v>16</v>
@@ -2068,7 +2067,7 @@
         <v>43</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>59</v>
@@ -2078,33 +2077,33 @@
       </c>
       <c r="AS18" s="15"/>
     </row>
-    <row r="19" spans="2:45" x14ac:dyDescent="0.4">
-      <c r="B19" s="77" t="s">
-        <v>130</v>
-      </c>
-      <c r="C19" s="77"/>
-      <c r="D19" s="76">
+    <row r="19" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B19" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="67"/>
+      <c r="D19" s="68">
         <v>12</v>
       </c>
-      <c r="E19" s="76"/>
+      <c r="E19" s="68"/>
       <c r="G19" s="4"/>
       <c r="I19" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="63" t="s">
+      <c r="J19" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="K19" s="64"/>
-      <c r="L19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="66"/>
       <c r="M19" s="21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="2:45" x14ac:dyDescent="0.4">
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
       <c r="I20" s="11" t="s">
         <v>16</v>
       </c>
@@ -2117,19 +2116,19 @@
         <v>84</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M20" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:45" x14ac:dyDescent="0.4">
-      <c r="B21" s="72" t="s">
-        <v>94</v>
-      </c>
-      <c r="C21" s="72"/>
+    <row r="21" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B21" s="69" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="69"/>
       <c r="D21" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E21" s="24">
         <v>44838</v>
@@ -2153,11 +2152,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="2:45" x14ac:dyDescent="0.4">
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
+    <row r="22" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
       <c r="D22" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E22" s="24">
         <v>44874</v>
@@ -2171,11 +2170,11 @@
       <c r="U22"/>
       <c r="Y22" s="3"/>
     </row>
-    <row r="23" spans="2:45" x14ac:dyDescent="0.4">
-      <c r="B23" s="72"/>
-      <c r="C23" s="72"/>
+    <row r="23" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
       <c r="D23" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E23" s="24">
         <v>44936</v>
@@ -2189,15 +2188,15 @@
       <c r="U23"/>
       <c r="Y23" s="3"/>
     </row>
-    <row r="24" spans="2:45" x14ac:dyDescent="0.4">
-      <c r="B24" s="67" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" s="67"/>
-      <c r="D24" s="78">
+    <row r="24" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="B24" s="70" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="70"/>
+      <c r="D24" s="71">
         <v>44844</v>
       </c>
-      <c r="E24" s="67"/>
+      <c r="E24" s="70"/>
       <c r="I24" s="11" t="s">
         <v>16</v>
       </c>
@@ -2206,7 +2205,7 @@
       </c>
       <c r="U24"/>
     </row>
-    <row r="25" spans="2:45" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:45" x14ac:dyDescent="0.25">
       <c r="I25" s="11" t="s">
         <v>16</v>
       </c>
@@ -2214,7 +2213,7 @@
         <v>44</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>49</v>
@@ -2224,21 +2223,21 @@
       </c>
       <c r="U25"/>
     </row>
-    <row r="26" spans="2:45" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:45" x14ac:dyDescent="0.25">
       <c r="I26" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="63" t="s">
+      <c r="J26" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="K26" s="64"/>
-      <c r="L26" s="65"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="66"/>
       <c r="M26" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U26"/>
     </row>
-    <row r="27" spans="2:45" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:45" x14ac:dyDescent="0.25">
       <c r="I27" s="11" t="s">
         <v>16</v>
       </c>
@@ -2251,14 +2250,14 @@
         <v>70</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M27" s="18" t="s">
         <v>16</v>
       </c>
       <c r="U27"/>
     </row>
-    <row r="28" spans="2:45" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:45" x14ac:dyDescent="0.25">
       <c r="I28" s="11" t="s">
         <v>16</v>
       </c>
@@ -2279,7 +2278,7 @@
       </c>
       <c r="U28"/>
     </row>
-    <row r="29" spans="2:45" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:45" x14ac:dyDescent="0.25">
       <c r="I29" s="11" t="s">
         <v>16</v>
       </c>
@@ -2289,7 +2288,7 @@
       <c r="Q29"/>
       <c r="U29"/>
     </row>
-    <row r="30" spans="2:45" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:45" x14ac:dyDescent="0.25">
       <c r="I30" s="11" t="s">
         <v>16</v>
       </c>
@@ -2297,15 +2296,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="2:45" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:45" x14ac:dyDescent="0.25">
       <c r="I31" s="11" t="s">
         <v>16</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>49</v>
@@ -2314,23 +2313,23 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="2:45" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:45" x14ac:dyDescent="0.25">
       <c r="H32" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I32" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="J32" s="63" t="s">
-        <v>103</v>
-      </c>
-      <c r="K32" s="64"/>
-      <c r="L32" s="65"/>
+      <c r="J32" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="K32" s="65"/>
+      <c r="L32" s="66"/>
       <c r="M32" s="21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="8:49" x14ac:dyDescent="0.4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="8:49" x14ac:dyDescent="0.25">
       <c r="H33" s="18" t="s">
         <v>16</v>
       </c>
@@ -2343,10 +2342,10 @@
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="34" spans="8:49" x14ac:dyDescent="0.4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="8:49" x14ac:dyDescent="0.25">
       <c r="H34" s="18" t="s">
         <v>16</v>
       </c>
@@ -2363,47 +2362,47 @@
         <v>44932</v>
       </c>
       <c r="M34" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="N34" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O34" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P34" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q34" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R34" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S34" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T34" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U34" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V34" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W34" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="X34" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y34" s="18" t="s">
         <v>16</v>
       </c>
       <c r="Z34" s="21"/>
     </row>
-    <row r="35" spans="8:49" x14ac:dyDescent="0.4">
+    <row r="35" spans="8:49" x14ac:dyDescent="0.25">
       <c r="H35" s="18" t="s">
         <v>16</v>
       </c>
@@ -2414,7 +2413,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="8:49" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:49" x14ac:dyDescent="0.25">
       <c r="H36" s="18" t="s">
         <v>16</v>
       </c>
@@ -2428,7 +2427,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="8:49" x14ac:dyDescent="0.4">
+    <row r="37" spans="8:49" x14ac:dyDescent="0.25">
       <c r="H37" s="18" t="s">
         <v>16</v>
       </c>
@@ -2439,16 +2438,16 @@
         <v>0</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N37" s="1" t="s">
         <v>2</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P37" s="1" t="s">
         <v>47</v>
@@ -2457,7 +2456,7 @@
         <v>3</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T37" s="1" t="s">
         <v>54</v>
@@ -2466,147 +2465,147 @@
         <v>4</v>
       </c>
       <c r="W37" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="X37" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y37" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AL37" s="1" t="s">
         <v>10</v>
       </c>
       <c r="AM37" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AN37" s="1" t="s">
         <v>48</v>
       </c>
       <c r="AP37" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AQ37" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AR37" s="1" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="AS37" s="2"/>
       <c r="AT37" s="1" t="s">
         <v>11</v>
       </c>
       <c r="AU37" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AV37" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AW37" s="53" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="38" spans="8:49" x14ac:dyDescent="0.4">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="8:49" x14ac:dyDescent="0.25">
       <c r="H38" s="18" t="s">
         <v>16</v>
       </c>
       <c r="I38" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J38" s="63" t="s">
+      <c r="J38" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="K38" s="64"/>
-      <c r="L38" s="65"/>
+      <c r="K38" s="65"/>
+      <c r="L38" s="66"/>
       <c r="M38" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N38" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="O38" s="64"/>
-      <c r="P38" s="65"/>
+      <c r="N38" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="O38" s="65"/>
+      <c r="P38" s="66"/>
       <c r="Q38" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="R38" s="73" t="s">
+      <c r="R38" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="S38" s="73"/>
+      <c r="T38" s="74"/>
+      <c r="U38" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="V38" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="S38" s="74"/>
-      <c r="T38" s="75"/>
-      <c r="U38" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="V38" s="73" t="s">
-        <v>64</v>
-      </c>
-      <c r="W38" s="74"/>
-      <c r="X38" s="75"/>
+      <c r="W38" s="73"/>
+      <c r="X38" s="74"/>
       <c r="Y38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Z38" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AA38" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AB38" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AC38" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AD38" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AE38" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AF38" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG38" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH38" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI38" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AJ38" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AK38" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL38" s="63" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM38" s="64"/>
-      <c r="AN38" s="65"/>
+        <v>112</v>
+      </c>
+      <c r="AL38" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM38" s="65"/>
+      <c r="AN38" s="66"/>
       <c r="AO38" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AP38" s="63" t="s">
-        <v>68</v>
-      </c>
-      <c r="AQ38" s="64"/>
-      <c r="AR38" s="65"/>
+      <c r="AP38" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ38" s="65"/>
+      <c r="AR38" s="66"/>
       <c r="AS38" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AT38" s="63" t="s">
+      <c r="AT38" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="AU38" s="64"/>
-      <c r="AV38" s="65"/>
+      <c r="AU38" s="65"/>
+      <c r="AV38" s="66"/>
       <c r="AW38" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="8:49" x14ac:dyDescent="0.4">
+    <row r="39" spans="8:49" x14ac:dyDescent="0.25">
       <c r="H39" s="18" t="s">
         <v>16</v>
       </c>
@@ -2622,7 +2621,7 @@
         <v>12</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M39" s="18" t="s">
         <v>16</v>
@@ -2636,7 +2635,7 @@
         <v>7</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q39" s="18" t="s">
         <v>16</v>
@@ -2650,7 +2649,7 @@
         <v>3</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U39" s="11" t="s">
         <v>16</v>
@@ -2664,7 +2663,7 @@
         <v>5</v>
       </c>
       <c r="X39" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AK39" s="11" t="s">
         <v>16</v>
@@ -2678,7 +2677,7 @@
         <v>10</v>
       </c>
       <c r="AN39" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AP39" s="1" t="str">
         <f>AN39</f>
@@ -2689,20 +2688,20 @@
         <v>3</v>
       </c>
       <c r="AR39" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AS39" s="2"/>
       <c r="AT39" s="49" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AU39" s="1" t="s">
         <v>38</v>
       </c>
       <c r="AV39" s="49" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="40" spans="8:49" x14ac:dyDescent="0.4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="8:49" x14ac:dyDescent="0.25">
       <c r="H40" s="18" t="s">
         <v>16</v>
       </c>
@@ -2793,42 +2792,42 @@
       </c>
       <c r="AS40" s="2"/>
       <c r="AT40" s="50" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AU40" s="6" t="s">
         <v>38</v>
       </c>
       <c r="AV40" s="50" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="8:49" x14ac:dyDescent="0.25">
+      <c r="H41" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="M41" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q41" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="U41" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK41" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AT41" s="52" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="41" spans="8:49" x14ac:dyDescent="0.4">
-      <c r="H41" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="I41" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="M41" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q41" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="U41" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK41" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="AT41" s="52" t="s">
-        <v>121</v>
       </c>
       <c r="AU41" s="51">
         <v>44936</v>
       </c>
     </row>
-    <row r="42" spans="8:49" x14ac:dyDescent="0.4">
+    <row r="42" spans="8:49" x14ac:dyDescent="0.25">
       <c r="H42" s="18" t="s">
         <v>16</v>
       </c>
@@ -2844,14 +2843,14 @@
       <c r="U42" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="AK42" s="82" t="s">
-        <v>132</v>
+      <c r="AK42" s="63" t="s">
+        <v>134</v>
       </c>
       <c r="AL42" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="8:49" x14ac:dyDescent="0.4">
+    <row r="43" spans="8:49" x14ac:dyDescent="0.25">
       <c r="H43" s="18" t="s">
         <v>16</v>
       </c>
@@ -2862,7 +2861,7 @@
         <v>1</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>54</v>
@@ -2880,7 +2879,7 @@
         <v>6</v>
       </c>
       <c r="W43" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="X43" s="1" t="s">
         <v>54</v>
@@ -2889,19 +2888,19 @@
         <v>7</v>
       </c>
       <c r="AA43" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AB43" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC43" s="62" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AD43" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AE43" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AF43" s="1" t="s">
         <v>49</v>
@@ -2910,7 +2909,7 @@
         <v>9</v>
       </c>
       <c r="AI43" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AJ43" s="1" t="s">
         <v>47</v>
@@ -2922,20 +2921,20 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="8:49" x14ac:dyDescent="0.4">
+    <row r="44" spans="8:49" x14ac:dyDescent="0.25">
       <c r="H44" s="18" t="s">
         <v>16</v>
       </c>
       <c r="I44" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="J44" s="63" t="s">
+      <c r="J44" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="K44" s="64"/>
-      <c r="L44" s="65"/>
+      <c r="K44" s="65"/>
+      <c r="L44" s="66"/>
       <c r="M44" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q44" s="18" t="s">
         <v>16</v>
@@ -2943,43 +2942,43 @@
       <c r="U44" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="V44" s="63" t="s">
-        <v>65</v>
-      </c>
-      <c r="W44" s="64"/>
-      <c r="X44" s="65"/>
+      <c r="V44" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="W44" s="65"/>
+      <c r="X44" s="66"/>
       <c r="Y44" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Z44" s="63" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA44" s="64"/>
-      <c r="AB44" s="65"/>
+      <c r="Z44" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA44" s="65"/>
+      <c r="AB44" s="66"/>
       <c r="AC44" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="AD44" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE44" s="64"/>
-      <c r="AF44" s="65"/>
+        <v>125</v>
+      </c>
+      <c r="AD44" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE44" s="65"/>
+      <c r="AF44" s="66"/>
       <c r="AG44" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AH44" s="63" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI44" s="64"/>
-      <c r="AJ44" s="65"/>
+      <c r="AH44" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI44" s="65"/>
+      <c r="AJ44" s="66"/>
       <c r="AK44" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AL44" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="8:49" x14ac:dyDescent="0.4">
+    <row r="45" spans="8:49" x14ac:dyDescent="0.25">
       <c r="H45" s="18" t="s">
         <v>16</v>
       </c>
@@ -2995,7 +2994,7 @@
         <v>12</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q45" s="18" t="s">
         <v>16</v>
@@ -3010,7 +3009,7 @@
         <v>17</v>
       </c>
       <c r="X45" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Z45" s="1" t="str">
         <f>X45</f>
@@ -3021,7 +3020,7 @@
         <v>17</v>
       </c>
       <c r="AB45" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AC45" s="18" t="s">
         <v>16</v>
@@ -3035,7 +3034,7 @@
         <v>10</v>
       </c>
       <c r="AF45" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AH45" s="1" t="str">
         <f>AF45</f>
@@ -3046,13 +3045,13 @@
         <v>10</v>
       </c>
       <c r="AJ45" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AL45" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="8:49" x14ac:dyDescent="0.4">
+    <row r="46" spans="8:49" x14ac:dyDescent="0.25">
       <c r="H46" s="18" t="s">
         <v>16</v>
       </c>
@@ -3131,7 +3130,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="8:49" x14ac:dyDescent="0.4">
+    <row r="47" spans="8:49" x14ac:dyDescent="0.25">
       <c r="H47" s="18" t="s">
         <v>16</v>
       </c>
@@ -3150,7 +3149,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="8:49" x14ac:dyDescent="0.4">
+    <row r="48" spans="8:49" x14ac:dyDescent="0.25">
       <c r="H48" s="18" t="s">
         <v>16</v>
       </c>
@@ -3169,7 +3168,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="8:38" x14ac:dyDescent="0.4">
+    <row r="49" spans="8:38" x14ac:dyDescent="0.25">
       <c r="H49" s="18" t="s">
         <v>16</v>
       </c>
@@ -3180,7 +3179,7 @@
         <v>5</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L49" s="1" t="s">
         <v>59</v>
@@ -3197,32 +3196,32 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="8:38" x14ac:dyDescent="0.4">
+    <row r="50" spans="8:38" x14ac:dyDescent="0.25">
       <c r="H50" s="18" t="s">
         <v>16</v>
       </c>
       <c r="I50" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="J50" s="63" t="s">
-        <v>79</v>
-      </c>
-      <c r="K50" s="64"/>
-      <c r="L50" s="65"/>
+      <c r="J50" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="K50" s="65"/>
+      <c r="L50" s="66"/>
       <c r="M50" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="N50" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="O50" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="P50" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q50" s="21" t="s">
         <v>85</v>
-      </c>
-      <c r="N50" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="O50" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="P50" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q50" s="21" t="s">
-        <v>86</v>
       </c>
       <c r="U50"/>
       <c r="AC50" s="18" t="s">
@@ -3232,7 +3231,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="8:38" x14ac:dyDescent="0.4">
+    <row r="51" spans="8:38" x14ac:dyDescent="0.25">
       <c r="H51" s="18" t="s">
         <v>16</v>
       </c>
@@ -3245,7 +3244,7 @@
         <v>14</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M51"/>
       <c r="Q51" s="18"/>
@@ -3257,7 +3256,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="8:38" x14ac:dyDescent="0.4">
+    <row r="52" spans="8:38" x14ac:dyDescent="0.25">
       <c r="H52" s="18" t="s">
         <v>16</v>
       </c>
@@ -3283,7 +3282,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="8:38" x14ac:dyDescent="0.4">
+    <row r="53" spans="8:38" x14ac:dyDescent="0.25">
       <c r="H53" s="18" t="s">
         <v>16</v>
       </c>
@@ -3295,7 +3294,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="8:38" x14ac:dyDescent="0.4">
+    <row r="54" spans="8:38" x14ac:dyDescent="0.25">
       <c r="H54" s="18" t="s">
         <v>16</v>
       </c>
@@ -3307,147 +3306,126 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="8:38" x14ac:dyDescent="0.4">
+    <row r="55" spans="8:38" x14ac:dyDescent="0.25">
       <c r="H55" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I55" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J55" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K55" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L55" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M55" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N55" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O55" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P55" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q55" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R55" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S55" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T55" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U55" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V55" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W55" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="X55" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y55" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Z55" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AA55" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AB55" s="21" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AC55" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AD55" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AE55" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AF55" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG55" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH55" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI55" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AJ55" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AK55" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AL55" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="8:38" x14ac:dyDescent="0.4">
+    <row r="56" spans="8:38" x14ac:dyDescent="0.25">
       <c r="U56"/>
     </row>
-    <row r="57" spans="8:38" x14ac:dyDescent="0.4">
+    <row r="57" spans="8:38" x14ac:dyDescent="0.25">
       <c r="U57"/>
     </row>
-    <row r="58" spans="8:38" x14ac:dyDescent="0.4">
+    <row r="58" spans="8:38" x14ac:dyDescent="0.25">
       <c r="U58"/>
     </row>
-    <row r="59" spans="8:38" x14ac:dyDescent="0.4">
+    <row r="59" spans="8:38" x14ac:dyDescent="0.25">
       <c r="Q59"/>
       <c r="U59"/>
     </row>
-    <row r="60" spans="8:38" x14ac:dyDescent="0.4">
+    <row r="60" spans="8:38" x14ac:dyDescent="0.25">
       <c r="Q60"/>
       <c r="U60"/>
     </row>
-    <row r="61" spans="8:38" x14ac:dyDescent="0.4">
+    <row r="61" spans="8:38" x14ac:dyDescent="0.25">
       <c r="U61"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="V44:X44"/>
-    <mergeCell ref="Z44:AB44"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="D17:E18"/>
-    <mergeCell ref="B21:C23"/>
-    <mergeCell ref="AH44:AJ44"/>
-    <mergeCell ref="AP38:AR38"/>
-    <mergeCell ref="AL38:AN38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B19:C20"/>
-    <mergeCell ref="AD44:AF44"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="AT38:AV38"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="V38:X38"/>
-    <mergeCell ref="R38:T38"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D19:E20"/>
+    <mergeCell ref="B1:H2"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
     <mergeCell ref="AD5:AP5"/>
     <mergeCell ref="B14:C16"/>
     <mergeCell ref="F6:H6"/>
@@ -3458,9 +3436,30 @@
     <mergeCell ref="AJ8:AL8"/>
     <mergeCell ref="N6:P6"/>
     <mergeCell ref="J6:L6"/>
-    <mergeCell ref="B1:H2"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="AT38:AV38"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="V38:X38"/>
+    <mergeCell ref="R38:T38"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D19:E20"/>
+    <mergeCell ref="AH44:AJ44"/>
+    <mergeCell ref="AP38:AR38"/>
+    <mergeCell ref="AL38:AN38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="AD44:AF44"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="V44:X44"/>
+    <mergeCell ref="Z44:AB44"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="D17:E18"/>
+    <mergeCell ref="B21:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B19:C20"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J32:L32"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -3475,15 +3474,15 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="E2" s="2"/>
       <c r="I2" s="2"/>
       <c r="M2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>28</v>
       </c>
@@ -3500,15 +3499,15 @@
       <c r="M3" s="2"/>
       <c r="Q3" s="2"/>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="66"/>
       <c r="H4" s="4" t="s">
         <v>29</v>
       </c>
@@ -3528,7 +3527,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D5" s="1" t="s">
         <v>22</v>
       </c>
@@ -3557,7 +3556,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D6" s="1" t="s">
         <v>25</v>
       </c>
@@ -3571,7 +3570,7 @@
       <c r="M6" s="2"/>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="F7" s="2"/>
       <c r="H7" s="8"/>
       <c r="I7" s="14" t="s">
@@ -3582,7 +3581,7 @@
       <c r="N7" s="2"/>
       <c r="Q7" s="2"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="E8" s="2"/>
       <c r="H8" s="15" t="s">
         <v>13</v>
@@ -3593,15 +3592,15 @@
       <c r="M8" s="2"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="E9" s="2"/>
       <c r="I9" s="2"/>
       <c r="M9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="H15" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/PM/640_Netzplan/Netzplan_2.xlsx
+++ b/PM/640_Netzplan/Netzplan_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moritz\Documents\GitHub\labor_mod_sim\PM\640_Netzplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE89914-EFF2-4246-ABD3-810860B6B53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED98B52-A1AF-4520-937C-4398CED82324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="825" windowWidth="15825" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12390" yWindow="1260" windowWidth="16455" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1117,6 +1117,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1126,52 +1147,31 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="6" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1491,7 +1491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG16" zoomScale="76" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="76" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AR37" sqref="AR37"/>
     </sheetView>
   </sheetViews>
@@ -1506,24 +1506,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
     </row>
     <row r="2" spans="1:51" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5" s="62" t="s">
@@ -1568,21 +1568,21 @@
       <c r="Q5" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="AD5" s="75" t="s">
+      <c r="AD5" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="AE5" s="76"/>
-      <c r="AF5" s="76"/>
-      <c r="AG5" s="77"/>
-      <c r="AH5" s="77"/>
-      <c r="AI5" s="77"/>
-      <c r="AJ5" s="77"/>
-      <c r="AK5" s="77"/>
-      <c r="AL5" s="77"/>
-      <c r="AM5" s="77"/>
-      <c r="AN5" s="77"/>
-      <c r="AO5" s="77"/>
-      <c r="AP5" s="78"/>
+      <c r="AE5" s="67"/>
+      <c r="AF5" s="67"/>
+      <c r="AG5" s="68"/>
+      <c r="AH5" s="68"/>
+      <c r="AI5" s="68"/>
+      <c r="AJ5" s="68"/>
+      <c r="AK5" s="68"/>
+      <c r="AL5" s="68"/>
+      <c r="AM5" s="68"/>
+      <c r="AN5" s="68"/>
+      <c r="AO5" s="68"/>
+      <c r="AP5" s="69"/>
       <c r="AT5" s="16"/>
       <c r="AU5" s="16"/>
       <c r="AV5" s="16"/>
@@ -1594,35 +1594,35 @@
       <c r="A6" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="66"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="73"/>
       <c r="E6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="64" t="s">
+      <c r="F6" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="65"/>
-      <c r="H6" s="66"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="73"/>
       <c r="I6" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="J6" s="64" t="s">
+      <c r="J6" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="65"/>
-      <c r="L6" s="66"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="73"/>
       <c r="M6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="64" t="s">
+      <c r="N6" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="O6" s="65"/>
-      <c r="P6" s="66"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="73"/>
       <c r="Q6" s="26" t="s">
         <v>100</v>
       </c>
@@ -1776,11 +1776,11 @@
       <c r="AG8" s="39"/>
       <c r="AH8" s="37"/>
       <c r="AI8" s="30"/>
-      <c r="AJ8" s="79" t="s">
+      <c r="AJ8" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="AK8" s="80"/>
-      <c r="AL8" s="81"/>
+      <c r="AK8" s="75"/>
+      <c r="AL8" s="76"/>
       <c r="AM8" s="30"/>
       <c r="AN8" s="30"/>
       <c r="AO8" s="30"/>
@@ -1893,11 +1893,11 @@
       <c r="I12" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="64" t="s">
+      <c r="J12" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="K12" s="65"/>
-      <c r="L12" s="66"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="73"/>
       <c r="M12" s="21" t="s">
         <v>69</v>
       </c>
@@ -1919,14 +1919,14 @@
       <c r="AS12" s="20"/>
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B13" s="70" t="s">
+      <c r="B13" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70" t="s">
+      <c r="C13" s="65"/>
+      <c r="D13" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="E13" s="70"/>
+      <c r="E13" s="65"/>
       <c r="I13" s="11" t="s">
         <v>16</v>
       </c>
@@ -1966,14 +1966,14 @@
       <c r="AS13" s="11"/>
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="69"/>
-      <c r="D14" s="70" t="s">
+      <c r="C14" s="70"/>
+      <c r="D14" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="E14" s="70"/>
+      <c r="E14" s="65"/>
       <c r="I14" s="11" t="s">
         <v>16</v>
       </c>
@@ -2008,12 +2008,12 @@
       <c r="AS14" s="11"/>
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="70" t="s">
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="E15" s="70"/>
+      <c r="E15" s="65"/>
       <c r="I15" s="11" t="s">
         <v>16</v>
       </c>
@@ -2023,12 +2023,12 @@
       <c r="AS15" s="11"/>
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="70" t="s">
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="E16" s="70"/>
+      <c r="E16" s="65"/>
       <c r="I16" s="11" t="s">
         <v>16</v>
       </c>
@@ -2038,14 +2038,14 @@
       <c r="AS16" s="11"/>
     </row>
     <row r="17" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B17" s="67" t="s">
+      <c r="B17" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="67"/>
-      <c r="D17" s="68">
+      <c r="C17" s="81"/>
+      <c r="D17" s="80">
         <v>4</v>
       </c>
-      <c r="E17" s="68"/>
+      <c r="E17" s="80"/>
       <c r="I17" s="11" t="s">
         <v>16</v>
       </c>
@@ -2055,10 +2055,10 @@
       <c r="AS17" s="11"/>
     </row>
     <row r="18" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B18" s="67"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
       <c r="G18" s="4"/>
       <c r="I18" s="11" t="s">
         <v>16</v>
@@ -2078,32 +2078,32 @@
       <c r="AS18" s="15"/>
     </row>
     <row r="19" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B19" s="67" t="s">
+      <c r="B19" s="81" t="s">
         <v>129</v>
       </c>
-      <c r="C19" s="67"/>
-      <c r="D19" s="68">
+      <c r="C19" s="81"/>
+      <c r="D19" s="80">
         <v>12</v>
       </c>
-      <c r="E19" s="68"/>
+      <c r="E19" s="80"/>
       <c r="G19" s="4"/>
       <c r="I19" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="64" t="s">
+      <c r="J19" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="K19" s="65"/>
-      <c r="L19" s="66"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="73"/>
       <c r="M19" s="21" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="20" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
       <c r="I20" s="11" t="s">
         <v>16</v>
       </c>
@@ -2123,10 +2123,10 @@
       </c>
     </row>
     <row r="21" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B21" s="69" t="s">
+      <c r="B21" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="69"/>
+      <c r="C21" s="70"/>
       <c r="D21" s="22" t="s">
         <v>96</v>
       </c>
@@ -2153,8 +2153,8 @@
       </c>
     </row>
     <row r="22" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="70"/>
       <c r="D22" s="22" t="s">
         <v>97</v>
       </c>
@@ -2171,8 +2171,8 @@
       <c r="Y22" s="3"/>
     </row>
     <row r="23" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B23" s="69"/>
-      <c r="C23" s="69"/>
+      <c r="B23" s="70"/>
+      <c r="C23" s="70"/>
       <c r="D23" s="23" t="s">
         <v>98</v>
       </c>
@@ -2189,14 +2189,14 @@
       <c r="Y23" s="3"/>
     </row>
     <row r="24" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B24" s="70" t="s">
+      <c r="B24" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="C24" s="70"/>
-      <c r="D24" s="71">
+      <c r="C24" s="65"/>
+      <c r="D24" s="82">
         <v>44844</v>
       </c>
-      <c r="E24" s="70"/>
+      <c r="E24" s="65"/>
       <c r="I24" s="11" t="s">
         <v>16</v>
       </c>
@@ -2227,11 +2227,11 @@
       <c r="I26" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="64" t="s">
+      <c r="J26" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="K26" s="65"/>
-      <c r="L26" s="66"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="73"/>
       <c r="M26" s="21" t="s">
         <v>69</v>
       </c>
@@ -2320,11 +2320,11 @@
       <c r="I32" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="J32" s="64" t="s">
+      <c r="J32" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="K32" s="65"/>
-      <c r="L32" s="66"/>
+      <c r="K32" s="72"/>
+      <c r="L32" s="73"/>
       <c r="M32" s="21" t="s">
         <v>69</v>
       </c>
@@ -2512,35 +2512,35 @@
       <c r="I38" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J38" s="64" t="s">
+      <c r="J38" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="K38" s="65"/>
-      <c r="L38" s="66"/>
+      <c r="K38" s="72"/>
+      <c r="L38" s="73"/>
       <c r="M38" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N38" s="64" t="s">
+      <c r="N38" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="O38" s="65"/>
-      <c r="P38" s="66"/>
+      <c r="O38" s="72"/>
+      <c r="P38" s="73"/>
       <c r="Q38" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="R38" s="72" t="s">
+      <c r="R38" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="S38" s="73"/>
-      <c r="T38" s="74"/>
+      <c r="S38" s="78"/>
+      <c r="T38" s="79"/>
       <c r="U38" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="V38" s="72" t="s">
+      <c r="V38" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="W38" s="73"/>
-      <c r="X38" s="74"/>
+      <c r="W38" s="78"/>
+      <c r="X38" s="79"/>
       <c r="Y38" t="s">
         <v>122</v>
       </c>
@@ -2580,27 +2580,27 @@
       <c r="AK38" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="AL38" s="64" t="s">
+      <c r="AL38" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="AM38" s="65"/>
-      <c r="AN38" s="66"/>
+      <c r="AM38" s="72"/>
+      <c r="AN38" s="73"/>
       <c r="AO38" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AP38" s="64" t="s">
+      <c r="AP38" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="AQ38" s="65"/>
-      <c r="AR38" s="66"/>
+      <c r="AQ38" s="72"/>
+      <c r="AR38" s="73"/>
       <c r="AS38" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AT38" s="64" t="s">
+      <c r="AT38" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="AU38" s="65"/>
-      <c r="AV38" s="66"/>
+      <c r="AU38" s="72"/>
+      <c r="AV38" s="73"/>
       <c r="AW38" s="9" t="s">
         <v>52</v>
       </c>
@@ -2928,11 +2928,11 @@
       <c r="I44" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="J44" s="64" t="s">
+      <c r="J44" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="K44" s="65"/>
-      <c r="L44" s="66"/>
+      <c r="K44" s="72"/>
+      <c r="L44" s="73"/>
       <c r="M44" s="21" t="s">
         <v>69</v>
       </c>
@@ -2942,35 +2942,35 @@
       <c r="U44" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="V44" s="64" t="s">
+      <c r="V44" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="W44" s="65"/>
-      <c r="X44" s="66"/>
+      <c r="W44" s="72"/>
+      <c r="X44" s="73"/>
       <c r="Y44" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Z44" s="64" t="s">
+      <c r="Z44" s="71" t="s">
         <v>130</v>
       </c>
-      <c r="AA44" s="65"/>
-      <c r="AB44" s="66"/>
+      <c r="AA44" s="72"/>
+      <c r="AB44" s="73"/>
       <c r="AC44" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="AD44" s="64" t="s">
+      <c r="AD44" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="AE44" s="65"/>
-      <c r="AF44" s="66"/>
+      <c r="AE44" s="72"/>
+      <c r="AF44" s="73"/>
       <c r="AG44" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AH44" s="64" t="s">
+      <c r="AH44" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="AI44" s="65"/>
-      <c r="AJ44" s="66"/>
+      <c r="AI44" s="72"/>
+      <c r="AJ44" s="73"/>
       <c r="AK44" s="15" t="s">
         <v>69</v>
       </c>
@@ -3203,11 +3203,11 @@
       <c r="I50" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="J50" s="64" t="s">
+      <c r="J50" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="K50" s="65"/>
-      <c r="L50" s="66"/>
+      <c r="K50" s="72"/>
+      <c r="L50" s="73"/>
       <c r="M50" s="21" t="s">
         <v>84</v>
       </c>
@@ -3423,6 +3423,30 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="V44:X44"/>
+    <mergeCell ref="Z44:AB44"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="D17:E18"/>
+    <mergeCell ref="B21:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B19:C20"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="AH44:AJ44"/>
+    <mergeCell ref="AP38:AR38"/>
+    <mergeCell ref="AL38:AN38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="AD44:AF44"/>
+    <mergeCell ref="AT38:AV38"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="V38:X38"/>
+    <mergeCell ref="R38:T38"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D19:E20"/>
     <mergeCell ref="B1:H2"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:E13"/>
@@ -3436,30 +3460,6 @@
     <mergeCell ref="AJ8:AL8"/>
     <mergeCell ref="N6:P6"/>
     <mergeCell ref="J6:L6"/>
-    <mergeCell ref="AT38:AV38"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="V38:X38"/>
-    <mergeCell ref="R38:T38"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D19:E20"/>
-    <mergeCell ref="AH44:AJ44"/>
-    <mergeCell ref="AP38:AR38"/>
-    <mergeCell ref="AL38:AN38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="AD44:AF44"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="V44:X44"/>
-    <mergeCell ref="Z44:AB44"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="D17:E18"/>
-    <mergeCell ref="B21:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B19:C20"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="J32:L32"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -3503,11 +3503,11 @@
       <c r="B4" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="65"/>
-      <c r="F4" s="66"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="73"/>
       <c r="H4" s="4" t="s">
         <v>29</v>
       </c>

--- a/PM/640_Netzplan/Netzplan_2.xlsx
+++ b/PM/640_Netzplan/Netzplan_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moritz\Documents\GitHub\labor_mod_sim\PM\640_Netzplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED98B52-A1AF-4520-937C-4398CED82324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E6999E-DD25-4241-942E-9862759C962B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12390" yWindow="1260" windowWidth="16455" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1117,12 +1117,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1135,18 +1165,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1155,24 +1173,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1489,43 +1489,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:AY61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="76" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AR37" sqref="AR37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="5" max="5" width="11.42578125" style="2"/>
-    <col min="9" max="9" width="11.42578125" style="2"/>
-    <col min="13" max="13" width="11.42578125" style="2"/>
-    <col min="17" max="17" width="11.42578125" style="2" customWidth="1"/>
-    <col min="18" max="20" width="11.42578125" customWidth="1"/>
-    <col min="21" max="21" width="11.42578125" style="2"/>
+    <col min="5" max="5" width="11.3828125" style="2"/>
+    <col min="9" max="9" width="11.3828125" style="2"/>
+    <col min="13" max="13" width="11.3828125" style="2"/>
+    <col min="17" max="17" width="11.3828125" style="2" customWidth="1"/>
+    <col min="18" max="20" width="11.3828125" customWidth="1"/>
+    <col min="21" max="21" width="11.3828125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="64" t="s">
+    <row r="1" spans="1:51" ht="14.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-    </row>
-    <row r="2" spans="1:51" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-    </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+    </row>
+    <row r="2" spans="1:51" ht="14.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A5" s="62" t="s">
         <v>127</v>
       </c>
@@ -1568,21 +1571,21 @@
       <c r="Q5" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="AD5" s="66" t="s">
+      <c r="AD5" s="76" t="s">
         <v>115</v>
       </c>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="68"/>
-      <c r="AH5" s="68"/>
-      <c r="AI5" s="68"/>
-      <c r="AJ5" s="68"/>
-      <c r="AK5" s="68"/>
-      <c r="AL5" s="68"/>
-      <c r="AM5" s="68"/>
-      <c r="AN5" s="68"/>
-      <c r="AO5" s="68"/>
-      <c r="AP5" s="69"/>
+      <c r="AE5" s="77"/>
+      <c r="AF5" s="77"/>
+      <c r="AG5" s="78"/>
+      <c r="AH5" s="78"/>
+      <c r="AI5" s="78"/>
+      <c r="AJ5" s="78"/>
+      <c r="AK5" s="78"/>
+      <c r="AL5" s="78"/>
+      <c r="AM5" s="78"/>
+      <c r="AN5" s="78"/>
+      <c r="AO5" s="78"/>
+      <c r="AP5" s="79"/>
       <c r="AT5" s="16"/>
       <c r="AU5" s="16"/>
       <c r="AV5" s="16"/>
@@ -1590,39 +1593,39 @@
       <c r="AX5" s="16"/>
       <c r="AY5" s="16"/>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A6" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="73"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="66"/>
       <c r="E6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="71" t="s">
+      <c r="F6" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="72"/>
-      <c r="H6" s="73"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="66"/>
       <c r="I6" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="J6" s="71" t="s">
+      <c r="J6" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="72"/>
-      <c r="L6" s="73"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="66"/>
       <c r="M6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="71" t="s">
+      <c r="N6" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="O6" s="72"/>
-      <c r="P6" s="73"/>
+      <c r="O6" s="65"/>
+      <c r="P6" s="66"/>
       <c r="Q6" s="26" t="s">
         <v>100</v>
       </c>
@@ -1643,7 +1646,7 @@
       <c r="AR6" s="21"/>
       <c r="AS6" s="21"/>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.4">
       <c r="B7" s="7">
         <v>44838</v>
       </c>
@@ -1716,7 +1719,7 @@
       <c r="AP7" s="32"/>
       <c r="AS7" s="18"/>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.4">
       <c r="B8" s="7">
         <f>D8-1</f>
         <v>44851</v>
@@ -1776,18 +1779,18 @@
       <c r="AG8" s="39"/>
       <c r="AH8" s="37"/>
       <c r="AI8" s="30"/>
-      <c r="AJ8" s="74" t="s">
+      <c r="AJ8" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="AK8" s="75"/>
-      <c r="AL8" s="76"/>
+      <c r="AK8" s="81"/>
+      <c r="AL8" s="82"/>
       <c r="AM8" s="30"/>
       <c r="AN8" s="30"/>
       <c r="AO8" s="30"/>
       <c r="AP8" s="32"/>
       <c r="AS8" s="18"/>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.4">
       <c r="I9" s="11" t="s">
         <v>16</v>
       </c>
@@ -1820,7 +1823,7 @@
       <c r="AS9" s="18"/>
       <c r="AW9" s="13"/>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.4">
       <c r="I10" s="11" t="s">
         <v>16</v>
       </c>
@@ -1856,7 +1859,7 @@
       <c r="AP10" s="32"/>
       <c r="AS10" s="18"/>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.4">
       <c r="I11" s="11" t="s">
         <v>16</v>
       </c>
@@ -1889,15 +1892,15 @@
       <c r="AP11" s="32"/>
       <c r="AS11" s="18"/>
     </row>
-    <row r="12" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="I12" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="71" t="s">
+      <c r="J12" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="K12" s="72"/>
-      <c r="L12" s="73"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="66"/>
       <c r="M12" s="21" t="s">
         <v>69</v>
       </c>
@@ -1918,15 +1921,15 @@
       <c r="AP12" s="32"/>
       <c r="AS12" s="20"/>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B13" s="65" t="s">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="B13" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65" t="s">
+      <c r="C13" s="70"/>
+      <c r="D13" s="70" t="s">
         <v>88</v>
       </c>
-      <c r="E13" s="65"/>
+      <c r="E13" s="70"/>
       <c r="I13" s="11" t="s">
         <v>16</v>
       </c>
@@ -1965,15 +1968,15 @@
       <c r="AP13" s="32"/>
       <c r="AS13" s="11"/>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B14" s="70" t="s">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="B14" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="70"/>
-      <c r="D14" s="65" t="s">
+      <c r="C14" s="69"/>
+      <c r="D14" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="E14" s="65"/>
+      <c r="E14" s="70"/>
       <c r="I14" s="11" t="s">
         <v>16</v>
       </c>
@@ -2007,13 +2010,13 @@
       <c r="AP14" s="35"/>
       <c r="AS14" s="11"/>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="65" t="s">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="E15" s="65"/>
+      <c r="E15" s="70"/>
       <c r="I15" s="11" t="s">
         <v>16</v>
       </c>
@@ -2022,13 +2025,13 @@
       </c>
       <c r="AS15" s="11"/>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="65" t="s">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.4">
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="E16" s="65"/>
+      <c r="E16" s="70"/>
       <c r="I16" s="11" t="s">
         <v>16</v>
       </c>
@@ -2037,15 +2040,15 @@
       </c>
       <c r="AS16" s="11"/>
     </row>
-    <row r="17" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B17" s="81" t="s">
+    <row r="17" spans="2:45" x14ac:dyDescent="0.4">
+      <c r="B17" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="81"/>
-      <c r="D17" s="80">
+      <c r="C17" s="67"/>
+      <c r="D17" s="68">
         <v>4</v>
       </c>
-      <c r="E17" s="80"/>
+      <c r="E17" s="68"/>
       <c r="I17" s="11" t="s">
         <v>16</v>
       </c>
@@ -2054,11 +2057,11 @@
       </c>
       <c r="AS17" s="11"/>
     </row>
-    <row r="18" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B18" s="81"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="80"/>
+    <row r="18" spans="2:45" x14ac:dyDescent="0.4">
+      <c r="B18" s="67"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
       <c r="G18" s="4"/>
       <c r="I18" s="11" t="s">
         <v>16</v>
@@ -2077,33 +2080,33 @@
       </c>
       <c r="AS18" s="15"/>
     </row>
-    <row r="19" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B19" s="81" t="s">
+    <row r="19" spans="2:45" x14ac:dyDescent="0.4">
+      <c r="B19" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="C19" s="81"/>
-      <c r="D19" s="80">
+      <c r="C19" s="67"/>
+      <c r="D19" s="68">
         <v>12</v>
       </c>
-      <c r="E19" s="80"/>
+      <c r="E19" s="68"/>
       <c r="G19" s="4"/>
       <c r="I19" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="71" t="s">
+      <c r="J19" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="K19" s="72"/>
-      <c r="L19" s="73"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="66"/>
       <c r="M19" s="21" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B20" s="81"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
+    <row r="20" spans="2:45" x14ac:dyDescent="0.4">
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
       <c r="I20" s="11" t="s">
         <v>16</v>
       </c>
@@ -2122,11 +2125,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B21" s="70" t="s">
+    <row r="21" spans="2:45" x14ac:dyDescent="0.4">
+      <c r="B21" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="70"/>
+      <c r="C21" s="69"/>
       <c r="D21" s="22" t="s">
         <v>96</v>
       </c>
@@ -2152,9 +2155,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B22" s="70"/>
-      <c r="C22" s="70"/>
+    <row r="22" spans="2:45" x14ac:dyDescent="0.4">
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
       <c r="D22" s="22" t="s">
         <v>97</v>
       </c>
@@ -2170,9 +2173,9 @@
       <c r="U22"/>
       <c r="Y22" s="3"/>
     </row>
-    <row r="23" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B23" s="70"/>
-      <c r="C23" s="70"/>
+    <row r="23" spans="2:45" x14ac:dyDescent="0.4">
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
       <c r="D23" s="23" t="s">
         <v>98</v>
       </c>
@@ -2188,15 +2191,15 @@
       <c r="U23"/>
       <c r="Y23" s="3"/>
     </row>
-    <row r="24" spans="2:45" x14ac:dyDescent="0.25">
-      <c r="B24" s="65" t="s">
+    <row r="24" spans="2:45" x14ac:dyDescent="0.4">
+      <c r="B24" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="C24" s="65"/>
-      <c r="D24" s="82">
+      <c r="C24" s="70"/>
+      <c r="D24" s="71">
         <v>44844</v>
       </c>
-      <c r="E24" s="65"/>
+      <c r="E24" s="70"/>
       <c r="I24" s="11" t="s">
         <v>16</v>
       </c>
@@ -2205,7 +2208,7 @@
       </c>
       <c r="U24"/>
     </row>
-    <row r="25" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:45" x14ac:dyDescent="0.4">
       <c r="I25" s="11" t="s">
         <v>16</v>
       </c>
@@ -2223,21 +2226,21 @@
       </c>
       <c r="U25"/>
     </row>
-    <row r="26" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:45" x14ac:dyDescent="0.4">
       <c r="I26" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="J26" s="71" t="s">
+      <c r="J26" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="K26" s="72"/>
-      <c r="L26" s="73"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="66"/>
       <c r="M26" s="21" t="s">
         <v>69</v>
       </c>
       <c r="U26"/>
     </row>
-    <row r="27" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:45" x14ac:dyDescent="0.4">
       <c r="I27" s="11" t="s">
         <v>16</v>
       </c>
@@ -2257,7 +2260,7 @@
       </c>
       <c r="U27"/>
     </row>
-    <row r="28" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:45" x14ac:dyDescent="0.4">
       <c r="I28" s="11" t="s">
         <v>16</v>
       </c>
@@ -2278,7 +2281,7 @@
       </c>
       <c r="U28"/>
     </row>
-    <row r="29" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:45" x14ac:dyDescent="0.4">
       <c r="I29" s="11" t="s">
         <v>16</v>
       </c>
@@ -2288,7 +2291,7 @@
       <c r="Q29"/>
       <c r="U29"/>
     </row>
-    <row r="30" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:45" x14ac:dyDescent="0.4">
       <c r="I30" s="11" t="s">
         <v>16</v>
       </c>
@@ -2296,7 +2299,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:45" x14ac:dyDescent="0.4">
       <c r="I31" s="11" t="s">
         <v>16</v>
       </c>
@@ -2313,23 +2316,23 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:45" x14ac:dyDescent="0.4">
       <c r="H32" s="20" t="s">
         <v>85</v>
       </c>
       <c r="I32" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="J32" s="71" t="s">
+      <c r="J32" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="K32" s="72"/>
-      <c r="L32" s="73"/>
+      <c r="K32" s="65"/>
+      <c r="L32" s="66"/>
       <c r="M32" s="21" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="8:49" x14ac:dyDescent="0.25">
+    <row r="33" spans="8:49" x14ac:dyDescent="0.4">
       <c r="H33" s="18" t="s">
         <v>16</v>
       </c>
@@ -2345,7 +2348,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="8:49" x14ac:dyDescent="0.25">
+    <row r="34" spans="8:49" x14ac:dyDescent="0.4">
       <c r="H34" s="18" t="s">
         <v>16</v>
       </c>
@@ -2402,7 +2405,7 @@
       </c>
       <c r="Z34" s="21"/>
     </row>
-    <row r="35" spans="8:49" x14ac:dyDescent="0.25">
+    <row r="35" spans="8:49" x14ac:dyDescent="0.4">
       <c r="H35" s="18" t="s">
         <v>16</v>
       </c>
@@ -2413,7 +2416,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="8:49" x14ac:dyDescent="0.25">
+    <row r="36" spans="8:49" x14ac:dyDescent="0.4">
       <c r="H36" s="18" t="s">
         <v>16</v>
       </c>
@@ -2427,7 +2430,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="8:49" x14ac:dyDescent="0.25">
+    <row r="37" spans="8:49" x14ac:dyDescent="0.4">
       <c r="H37" s="18" t="s">
         <v>16</v>
       </c>
@@ -2505,42 +2508,42 @@
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="8:49" x14ac:dyDescent="0.25">
+    <row r="38" spans="8:49" x14ac:dyDescent="0.4">
       <c r="H38" s="18" t="s">
         <v>16</v>
       </c>
       <c r="I38" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J38" s="71" t="s">
+      <c r="J38" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="K38" s="72"/>
-      <c r="L38" s="73"/>
+      <c r="K38" s="65"/>
+      <c r="L38" s="66"/>
       <c r="M38" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N38" s="71" t="s">
+      <c r="N38" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="O38" s="72"/>
-      <c r="P38" s="73"/>
+      <c r="O38" s="65"/>
+      <c r="P38" s="66"/>
       <c r="Q38" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="R38" s="77" t="s">
+      <c r="R38" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="S38" s="78"/>
-      <c r="T38" s="79"/>
+      <c r="S38" s="73"/>
+      <c r="T38" s="74"/>
       <c r="U38" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="V38" s="77" t="s">
+      <c r="V38" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="W38" s="78"/>
-      <c r="X38" s="79"/>
+      <c r="W38" s="73"/>
+      <c r="X38" s="74"/>
       <c r="Y38" t="s">
         <v>122</v>
       </c>
@@ -2580,32 +2583,32 @@
       <c r="AK38" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="AL38" s="71" t="s">
+      <c r="AL38" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="AM38" s="72"/>
-      <c r="AN38" s="73"/>
+      <c r="AM38" s="65"/>
+      <c r="AN38" s="66"/>
       <c r="AO38" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AP38" s="71" t="s">
+      <c r="AP38" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="AQ38" s="72"/>
-      <c r="AR38" s="73"/>
+      <c r="AQ38" s="65"/>
+      <c r="AR38" s="66"/>
       <c r="AS38" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AT38" s="71" t="s">
+      <c r="AT38" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="AU38" s="72"/>
-      <c r="AV38" s="73"/>
+      <c r="AU38" s="65"/>
+      <c r="AV38" s="66"/>
       <c r="AW38" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="8:49" x14ac:dyDescent="0.25">
+    <row r="39" spans="8:49" x14ac:dyDescent="0.4">
       <c r="H39" s="18" t="s">
         <v>16</v>
       </c>
@@ -2701,7 +2704,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="8:49" x14ac:dyDescent="0.25">
+    <row r="40" spans="8:49" x14ac:dyDescent="0.4">
       <c r="H40" s="18" t="s">
         <v>16</v>
       </c>
@@ -2801,7 +2804,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="8:49" x14ac:dyDescent="0.25">
+    <row r="41" spans="8:49" x14ac:dyDescent="0.4">
       <c r="H41" s="18" t="s">
         <v>16</v>
       </c>
@@ -2827,7 +2830,7 @@
         <v>44936</v>
       </c>
     </row>
-    <row r="42" spans="8:49" x14ac:dyDescent="0.25">
+    <row r="42" spans="8:49" x14ac:dyDescent="0.4">
       <c r="H42" s="18" t="s">
         <v>16</v>
       </c>
@@ -2850,7 +2853,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="8:49" x14ac:dyDescent="0.25">
+    <row r="43" spans="8:49" x14ac:dyDescent="0.4">
       <c r="H43" s="18" t="s">
         <v>16</v>
       </c>
@@ -2921,18 +2924,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="8:49" x14ac:dyDescent="0.25">
+    <row r="44" spans="8:49" x14ac:dyDescent="0.4">
       <c r="H44" s="18" t="s">
         <v>16</v>
       </c>
       <c r="I44" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="J44" s="71" t="s">
+      <c r="J44" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="K44" s="72"/>
-      <c r="L44" s="73"/>
+      <c r="K44" s="65"/>
+      <c r="L44" s="66"/>
       <c r="M44" s="21" t="s">
         <v>69</v>
       </c>
@@ -2942,35 +2945,35 @@
       <c r="U44" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="V44" s="71" t="s">
+      <c r="V44" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="W44" s="72"/>
-      <c r="X44" s="73"/>
+      <c r="W44" s="65"/>
+      <c r="X44" s="66"/>
       <c r="Y44" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Z44" s="71" t="s">
+      <c r="Z44" s="64" t="s">
         <v>130</v>
       </c>
-      <c r="AA44" s="72"/>
-      <c r="AB44" s="73"/>
+      <c r="AA44" s="65"/>
+      <c r="AB44" s="66"/>
       <c r="AC44" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="AD44" s="71" t="s">
+      <c r="AD44" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="AE44" s="72"/>
-      <c r="AF44" s="73"/>
+      <c r="AE44" s="65"/>
+      <c r="AF44" s="66"/>
       <c r="AG44" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AH44" s="71" t="s">
+      <c r="AH44" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="AI44" s="72"/>
-      <c r="AJ44" s="73"/>
+      <c r="AI44" s="65"/>
+      <c r="AJ44" s="66"/>
       <c r="AK44" s="15" t="s">
         <v>69</v>
       </c>
@@ -2978,7 +2981,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="8:49" x14ac:dyDescent="0.25">
+    <row r="45" spans="8:49" x14ac:dyDescent="0.4">
       <c r="H45" s="18" t="s">
         <v>16</v>
       </c>
@@ -3051,7 +3054,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="8:49" x14ac:dyDescent="0.25">
+    <row r="46" spans="8:49" x14ac:dyDescent="0.4">
       <c r="H46" s="18" t="s">
         <v>16</v>
       </c>
@@ -3130,7 +3133,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="8:49" x14ac:dyDescent="0.25">
+    <row r="47" spans="8:49" x14ac:dyDescent="0.4">
       <c r="H47" s="18" t="s">
         <v>16</v>
       </c>
@@ -3149,7 +3152,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="8:49" x14ac:dyDescent="0.25">
+    <row r="48" spans="8:49" x14ac:dyDescent="0.4">
       <c r="H48" s="18" t="s">
         <v>16</v>
       </c>
@@ -3168,7 +3171,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="8:38" x14ac:dyDescent="0.25">
+    <row r="49" spans="8:38" x14ac:dyDescent="0.4">
       <c r="H49" s="18" t="s">
         <v>16</v>
       </c>
@@ -3196,18 +3199,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="8:38" x14ac:dyDescent="0.25">
+    <row r="50" spans="8:38" x14ac:dyDescent="0.4">
       <c r="H50" s="18" t="s">
         <v>16</v>
       </c>
       <c r="I50" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="J50" s="71" t="s">
+      <c r="J50" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="K50" s="72"/>
-      <c r="L50" s="73"/>
+      <c r="K50" s="65"/>
+      <c r="L50" s="66"/>
       <c r="M50" s="21" t="s">
         <v>84</v>
       </c>
@@ -3231,7 +3234,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="8:38" x14ac:dyDescent="0.25">
+    <row r="51" spans="8:38" x14ac:dyDescent="0.4">
       <c r="H51" s="18" t="s">
         <v>16</v>
       </c>
@@ -3256,7 +3259,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="8:38" x14ac:dyDescent="0.25">
+    <row r="52" spans="8:38" x14ac:dyDescent="0.4">
       <c r="H52" s="18" t="s">
         <v>16</v>
       </c>
@@ -3282,7 +3285,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="8:38" x14ac:dyDescent="0.25">
+    <row r="53" spans="8:38" x14ac:dyDescent="0.4">
       <c r="H53" s="18" t="s">
         <v>16</v>
       </c>
@@ -3294,7 +3297,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="8:38" x14ac:dyDescent="0.25">
+    <row r="54" spans="8:38" x14ac:dyDescent="0.4">
       <c r="H54" s="18" t="s">
         <v>16</v>
       </c>
@@ -3306,7 +3309,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="8:38" x14ac:dyDescent="0.25">
+    <row r="55" spans="8:38" x14ac:dyDescent="0.4">
       <c r="H55" s="20" t="s">
         <v>85</v>
       </c>
@@ -3401,52 +3404,28 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="8:38" x14ac:dyDescent="0.25">
+    <row r="56" spans="8:38" x14ac:dyDescent="0.4">
       <c r="U56"/>
     </row>
-    <row r="57" spans="8:38" x14ac:dyDescent="0.25">
+    <row r="57" spans="8:38" x14ac:dyDescent="0.4">
       <c r="U57"/>
     </row>
-    <row r="58" spans="8:38" x14ac:dyDescent="0.25">
+    <row r="58" spans="8:38" x14ac:dyDescent="0.4">
       <c r="U58"/>
     </row>
-    <row r="59" spans="8:38" x14ac:dyDescent="0.25">
+    <row r="59" spans="8:38" x14ac:dyDescent="0.4">
       <c r="Q59"/>
       <c r="U59"/>
     </row>
-    <row r="60" spans="8:38" x14ac:dyDescent="0.25">
+    <row r="60" spans="8:38" x14ac:dyDescent="0.4">
       <c r="Q60"/>
       <c r="U60"/>
     </row>
-    <row r="61" spans="8:38" x14ac:dyDescent="0.25">
+    <row r="61" spans="8:38" x14ac:dyDescent="0.4">
       <c r="U61"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="V44:X44"/>
-    <mergeCell ref="Z44:AB44"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="D17:E18"/>
-    <mergeCell ref="B21:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B19:C20"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="AH44:AJ44"/>
-    <mergeCell ref="AP38:AR38"/>
-    <mergeCell ref="AL38:AN38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="AD44:AF44"/>
-    <mergeCell ref="AT38:AV38"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="V38:X38"/>
-    <mergeCell ref="R38:T38"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D19:E20"/>
     <mergeCell ref="B1:H2"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:E13"/>
@@ -3460,9 +3439,33 @@
     <mergeCell ref="AJ8:AL8"/>
     <mergeCell ref="N6:P6"/>
     <mergeCell ref="J6:L6"/>
+    <mergeCell ref="AT38:AV38"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="V38:X38"/>
+    <mergeCell ref="R38:T38"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D19:E20"/>
+    <mergeCell ref="AH44:AJ44"/>
+    <mergeCell ref="AP38:AR38"/>
+    <mergeCell ref="AL38:AN38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="AD44:AF44"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="V44:X44"/>
+    <mergeCell ref="Z44:AB44"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="D17:E18"/>
+    <mergeCell ref="B21:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B19:C20"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J32:L32"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="3" scale="39" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3474,15 +3477,15 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.4">
       <c r="E2" s="2"/>
       <c r="I2" s="2"/>
       <c r="M2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>28</v>
       </c>
@@ -3499,15 +3502,15 @@
       <c r="M3" s="2"/>
       <c r="Q3" s="2"/>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="71" t="s">
+      <c r="D4" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="72"/>
-      <c r="F4" s="73"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="66"/>
       <c r="H4" s="4" t="s">
         <v>29</v>
       </c>
@@ -3527,7 +3530,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.4">
       <c r="D5" s="1" t="s">
         <v>22</v>
       </c>
@@ -3556,7 +3559,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.4">
       <c r="D6" s="1" t="s">
         <v>25</v>
       </c>
@@ -3570,7 +3573,7 @@
       <c r="M6" s="2"/>
       <c r="Q6" s="2"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.4">
       <c r="F7" s="2"/>
       <c r="H7" s="8"/>
       <c r="I7" s="14" t="s">
@@ -3581,7 +3584,7 @@
       <c r="N7" s="2"/>
       <c r="Q7" s="2"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.4">
       <c r="E8" s="2"/>
       <c r="H8" s="15" t="s">
         <v>13</v>
@@ -3592,13 +3595,13 @@
       <c r="M8" s="2"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.4">
       <c r="E9" s="2"/>
       <c r="I9" s="2"/>
       <c r="M9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.4">
       <c r="H15" s="16" t="s">
         <v>116</v>
       </c>
